--- a/周报/冯奕程-2018141411234.xlsx
+++ b/周报/冯奕程-2018141411234.xlsx
@@ -5,27 +5,27 @@
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\class\软件项目管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\class\软件项目管理\SotfwareManagement_CovidAid\周报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1B4522-86E6-49C2-B2A6-FCD655737FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669B2D40-FE3F-432F-A2E7-14EC75EFABF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第08周工作周报" sheetId="7" r:id="rId1"/>
-    <sheet name="第y周工作周报" sheetId="9" r:id="rId2"/>
+    <sheet name="第09周工作周报" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">第08周工作周报!$A$1:$O$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">第y周工作周报!$A$1:$O$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">第09周工作周报!$A$1:$O$35</definedName>
   </definedNames>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="81">
   <si>
     <t>本周工作总结</t>
   </si>
@@ -78,9 +78,6 @@
     <t>星期四</t>
   </si>
   <si>
-    <t>10.2O</t>
-  </si>
-  <si>
     <t>星期五</t>
   </si>
   <si>
@@ -97,40 +94,6 @@
   </si>
   <si>
     <t>额外工作说明：</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">工作周报    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="幼圆"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">日期：          </t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>本周工作总结</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="幼圆"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名：                                                                                       组长：</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>进度（%）</t>
@@ -287,6 +250,146 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">日期： 2022/4/15         </t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名：         冯奕程                                                                              组长：杨蔡胤</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">工作周报    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">日期：2022.4.22       </t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>撰写接口设计文档</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库模型设计</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天系统设计</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天系统基本逻辑实现</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>相应数据库模块实现</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.20</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天系统逻辑设计</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续收集数据集</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库模块设计</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口设计文档格式不规范</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>与其他人统一整合</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择高分辨率的图像，减小图片显示大小</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集医学图像不清晰</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库连表设计不统一</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>交流各个模块设计</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细设计说明书撰写</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.30</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天系统基本实现</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>期中考试，根据要求修改需求设计说明书</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库搭建</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本周工作总结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 本周继续细致完成设计方面的工作，给后续实际工作确定方向，做好保障。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进度正常。</t>
     </r>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -1158,7 +1261,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1211,6 +1314,183 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1223,39 +1503,6 @@
     <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1265,155 +1512,14 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="32" fillId="24" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1842,7 +1948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
@@ -1871,69 +1977,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="41"/>
+      <c r="A1" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="44"/>
+      <c r="A2" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="55"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="47"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="58"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1942,556 +2048,556 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="49"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="60"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="B5" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="88"/>
+      <c r="H5" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="46"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="B6" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="89"/>
+      <c r="H6" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="52"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="56" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="58"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="43"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="35"/>
+      <c r="E9" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="67"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59" t="s">
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59" t="s">
+      <c r="M9" s="41"/>
+      <c r="N9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="60"/>
+      <c r="O9" s="44"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="33">
+        <v>4.09</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="70">
+        <v>29</v>
+      </c>
+      <c r="F10" s="71"/>
+      <c r="G10" s="35">
+        <v>1</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="30"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="74">
+        <v>50</v>
+      </c>
+      <c r="F12" s="75"/>
+      <c r="G12" s="35">
+        <v>2</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="30"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="33">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="74">
+        <v>100</v>
+      </c>
+      <c r="F14" s="75"/>
+      <c r="G14" s="35">
+        <v>3</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="33">
+        <v>4.12</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="74">
+        <v>100</v>
+      </c>
+      <c r="F16" s="75"/>
+      <c r="G16" s="35">
+        <v>4</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="33">
+        <v>4.13</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="78">
+        <v>100</v>
+      </c>
+      <c r="F18" s="75"/>
+      <c r="G18" s="35">
+        <v>5</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="68">
-        <v>4.09</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="82">
+      <c r="B20" s="28"/>
+      <c r="C20" s="33">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D20" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="83"/>
-      <c r="G10" s="61">
-        <v>1</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="O10" s="69"/>
-      <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="70" t="s">
+      <c r="E20" s="78">
+        <v>20</v>
+      </c>
+      <c r="F20" s="75"/>
+      <c r="G20" s="35">
+        <v>6</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="77">
-        <v>50</v>
-      </c>
-      <c r="F12" s="78"/>
-      <c r="G12" s="61">
-        <v>2</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="O12" s="69"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="68">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="77">
-        <v>100</v>
-      </c>
-      <c r="F14" s="78"/>
-      <c r="G14" s="61">
-        <v>3</v>
-      </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="68">
-        <v>4.12</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="77">
-        <v>100</v>
-      </c>
-      <c r="F16" s="78"/>
-      <c r="G16" s="61">
-        <v>4</v>
-      </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="68">
-        <v>4.13</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="81">
-        <v>100</v>
-      </c>
-      <c r="F18" s="78"/>
-      <c r="G18" s="61">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="68">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="81">
+      <c r="B22" s="28"/>
+      <c r="C22" s="33">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="64">
+        <v>30</v>
+      </c>
+      <c r="F22" s="61"/>
+      <c r="G22" s="35">
+        <v>7</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="78"/>
-      <c r="G20" s="61">
-        <v>6</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="68">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="32">
-        <v>30</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="61">
-        <v>7</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="70"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59" t="s">
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
       <c r="N25" s="21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O25" s="12"/>
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="62"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="13">
         <v>10.24</v>
       </c>
-      <c r="D26" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
+      <c r="D26" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
       <c r="N26" s="14">
         <v>30</v>
       </c>
@@ -2499,25 +2605,25 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="64"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="15">
         <v>10.25</v>
       </c>
-      <c r="D27" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
+      <c r="D27" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
       <c r="N27" s="16">
         <v>100</v>
       </c>
@@ -2525,25 +2631,25 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="62"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="13">
         <v>10.26</v>
       </c>
-      <c r="D28" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
+      <c r="D28" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
       <c r="N28" s="14">
         <v>100</v>
       </c>
@@ -2551,51 +2657,51 @@
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="15">
         <v>10.27</v>
       </c>
-      <c r="D29" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="87">
+      <c r="D29" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="22">
         <v>0.8</v>
       </c>
       <c r="O29" s="17"/>
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="62"/>
+      <c r="A30" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="36"/>
       <c r="C30" s="13">
         <v>10.28</v>
       </c>
-      <c r="D30" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
+      <c r="D30" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
       <c r="N30" s="14">
         <v>100</v>
       </c>
@@ -2603,25 +2709,25 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="64"/>
+      <c r="A31" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="38"/>
       <c r="C31" s="15">
         <v>10.29</v>
       </c>
-      <c r="D31" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
+      <c r="D31" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
       <c r="N31" s="16">
         <v>100</v>
       </c>
@@ -2629,25 +2735,25 @@
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="62"/>
+      <c r="A32" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="36"/>
       <c r="C32" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
+        <v>21</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
       <c r="N32" s="14">
         <v>60</v>
       </c>
@@ -2655,61 +2761,61 @@
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="67"/>
+      <c r="A33" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="32"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="73"/>
+      <c r="A34" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="25"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="74"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="75"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="27"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2742,89 +2848,6 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A34:O35"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="H16:K17"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="H12:K13"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="A33:O33"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="H20:K21"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="H18:K19"/>
-    <mergeCell ref="L18:M19"/>
     <mergeCell ref="H10:K11"/>
     <mergeCell ref="E22:F23"/>
     <mergeCell ref="D14:D15"/>
@@ -2836,6 +2859,89 @@
     <mergeCell ref="E16:F17"/>
     <mergeCell ref="E18:F19"/>
     <mergeCell ref="E20:F21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="G16:G17"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
@@ -2848,8 +2954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2876,69 +2982,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="41"/>
+      <c r="A1" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="52"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="44"/>
+      <c r="A2" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="55"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="45" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="47"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="58"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -2947,696 +3053,764 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="49"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="60"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="B5" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="52"/>
+      <c r="H5" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="50"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="B6" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="55"/>
+      <c r="H6" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="80"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="52"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="56" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="58"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="43"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="35"/>
+      <c r="E9" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="67"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59" t="s">
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59" t="s">
+      <c r="M9" s="41"/>
+      <c r="N9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="60"/>
+      <c r="O9" s="44"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="68">
-        <v>10.17</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="61">
+      <c r="B10" s="28"/>
+      <c r="C10" s="33">
+        <v>4.18</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="88">
         <v>1</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="69"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="35">
+        <v>1</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" s="30"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="69"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="68">
-        <v>10.18</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="61">
+      <c r="B12" s="28"/>
+      <c r="C12" s="33">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="88">
+        <v>1</v>
+      </c>
+      <c r="F12" s="85"/>
+      <c r="G12" s="35">
         <v>2</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="69"/>
+      <c r="H12" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="30"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="69"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="30"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="68">
-        <v>10.19</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="61">
+      <c r="B14" s="28"/>
+      <c r="C14" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="88">
+        <v>1</v>
+      </c>
+      <c r="F14" s="85"/>
+      <c r="G14" s="35">
         <v>3</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="69"/>
+      <c r="H14" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" s="30"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="69"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="30"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="68" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="33">
+        <v>4.21</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="88">
+        <v>0.6</v>
+      </c>
+      <c r="F16" s="85"/>
+      <c r="G16" s="35">
+        <v>4</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="61">
-        <v>4</v>
-      </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="70" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="33">
+        <v>4.22</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="88">
+        <v>1</v>
+      </c>
+      <c r="F18" s="85"/>
+      <c r="G18" s="35">
+        <v>5</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="68">
-        <v>10.210000000000001</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="61">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="70" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="33">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="D20" s="68"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="35">
+        <v>6</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="68">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="61">
-        <v>6</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="70" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="33">
+        <v>4.24</v>
+      </c>
+      <c r="D22" s="68"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="35">
+        <v>7</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="68">
-        <v>10.23</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="61">
-        <v>7</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="70"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59" t="s">
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
       <c r="N25" s="21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O25" s="12"/>
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="62"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="13">
-        <v>10.24</v>
-      </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="14"/>
+        <v>4.25</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="89">
+        <v>0.3</v>
+      </c>
       <c r="O26" s="11"/>
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="64"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="15">
-        <v>10.25</v>
-      </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="16"/>
+        <v>4.26</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="22">
+        <v>0.2</v>
+      </c>
       <c r="O27" s="17"/>
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="62"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="13">
-        <v>10.26</v>
-      </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="14"/>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="89">
+        <v>1</v>
+      </c>
       <c r="O28" s="11"/>
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="15">
-        <v>10.27</v>
-      </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="16"/>
+        <v>4.28</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="22">
+        <v>1</v>
+      </c>
       <c r="O29" s="17"/>
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="62"/>
+      <c r="A30" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="36"/>
       <c r="C30" s="13">
-        <v>10.28</v>
-      </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="14"/>
+        <v>4.29</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="89">
+        <v>0.4</v>
+      </c>
       <c r="O30" s="11"/>
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="15">
-        <v>10.29</v>
-      </c>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
+      <c r="A31" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
+      <c r="A32" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="13">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="67"/>
+      <c r="A33" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="32"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="73"/>
+      <c r="A34" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="25"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="74"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="75"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="27"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3669,25 +3843,65 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:K15"/>
     <mergeCell ref="L10:M11"/>
     <mergeCell ref="N10:O11"/>
     <mergeCell ref="A12:B13"/>
@@ -3704,65 +3918,25 @@
     <mergeCell ref="E10:F11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:K11"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:K17"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:K21"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:K19"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="A33:O33"/>
-    <mergeCell ref="A34:O35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>

--- a/周报/冯奕程-2018141411234.xlsx
+++ b/周报/冯奕程-2018141411234.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\class\软件项目管理\SotfwareManagement_CovidAid\周报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669B2D40-FE3F-432F-A2E7-14EC75EFABF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BF137D-E433-4775-98F4-DBB4C50EF3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第08周工作周报" sheetId="7" r:id="rId1"/>
     <sheet name="第09周工作周报" sheetId="9" r:id="rId2"/>
+    <sheet name="第10周工作周报" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">第08周工作周报!$A$1:$O$35</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="89">
   <si>
     <t>本周工作总结</t>
   </si>
@@ -390,6 +391,71 @@
         <charset val="134"/>
       </rPr>
       <t>进度正常。</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现医患聊天系统</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.27</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建数据库,填充模拟数据</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端界面设计</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现聊天系统后端接口</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>医患聊天系统前后端联调</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本周工作总结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 本周主要工作为医患聊天系统实现。进度正常。</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">工作周报    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">日期：2022.4.29       </t>
     </r>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -1317,6 +1383,159 @@
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="32" fillId="24" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1332,157 +1551,34 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1490,36 +1586,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="32" fillId="24" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1952,873 +2018,873 @@
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.59765625" style="3" customWidth="1"/>
     <col min="3" max="3" width="8" style="3" customWidth="1"/>
     <col min="4" max="4" width="36" style="3" customWidth="1"/>
-    <col min="5" max="5" width="4.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="4.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.19921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.59765625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="4.8984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.09765625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.09765625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.59765625" style="3" customWidth="1"/>
     <col min="11" max="11" width="4.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="7.25" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="6.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.09765625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7.19921875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.8984375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.59765625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="6.8984375" style="3" customWidth="1"/>
     <col min="17" max="17" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.75" style="3" customWidth="1"/>
+    <col min="18" max="18" width="26.69921875" style="3" customWidth="1"/>
     <col min="19" max="19" width="9" style="3" bestFit="1"/>
     <col min="20" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="52"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="39"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="42"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="56" t="s">
+    <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="56" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="58"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="45"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="60"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="47"/>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="46"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="49"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="51"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="50"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="53"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="40" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="43"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="56"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="41" t="s">
+    <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="67"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41" t="s">
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41" t="s">
+      <c r="M9" s="57"/>
+      <c r="N9" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="44"/>
+      <c r="O9" s="58"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="33">
+      <c r="B10" s="67"/>
+      <c r="C10" s="68">
         <v>4.09</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="30" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="70">
         <v>29</v>
       </c>
       <c r="F10" s="71"/>
-      <c r="G10" s="35">
+      <c r="G10" s="65">
         <v>1</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29" t="s">
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29" t="s">
+      <c r="M10" s="25"/>
+      <c r="N10" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="30"/>
+      <c r="O10" s="66"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="69"/>
+    <row r="11" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="72"/>
       <c r="F11" s="73"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="66"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="34" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="74">
+      <c r="E12" s="32">
         <v>50</v>
       </c>
-      <c r="F12" s="75"/>
-      <c r="G12" s="35">
+      <c r="F12" s="33"/>
+      <c r="G12" s="65">
         <v>2</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29" t="s">
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29" t="s">
+      <c r="M12" s="25"/>
+      <c r="N12" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="O12" s="30"/>
+      <c r="O12" s="66"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="30"/>
+    <row r="13" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="66"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="33">
+      <c r="B14" s="67"/>
+      <c r="C14" s="68">
         <v>4.1100000000000003</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="74">
+      <c r="E14" s="32">
         <v>100</v>
       </c>
-      <c r="F14" s="75"/>
-      <c r="G14" s="35">
+      <c r="F14" s="33"/>
+      <c r="G14" s="65">
         <v>3</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="30"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="66"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="30"/>
+    <row r="15" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="66"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="33">
+      <c r="B16" s="67"/>
+      <c r="C16" s="68">
         <v>4.12</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="74">
+      <c r="E16" s="32">
         <v>100</v>
       </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="35">
+      <c r="F16" s="33"/>
+      <c r="G16" s="65">
         <v>4</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="30"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="66"/>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="30"/>
+    <row r="17" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="66"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="33">
+      <c r="B18" s="67"/>
+      <c r="C18" s="68">
         <v>4.13</v>
       </c>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="78">
+      <c r="E18" s="36">
         <v>100</v>
       </c>
-      <c r="F18" s="75"/>
-      <c r="G18" s="35">
+      <c r="F18" s="33"/>
+      <c r="G18" s="65">
         <v>5</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="61"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="27"/>
       <c r="P18" s="7"/>
     </row>
-    <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="63"/>
+    <row r="19" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="29"/>
       <c r="P19" s="7"/>
     </row>
-    <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="33">
+      <c r="B20" s="67"/>
+      <c r="C20" s="68">
         <v>4.1399999999999997</v>
       </c>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="78">
+      <c r="E20" s="36">
         <v>20</v>
       </c>
-      <c r="F20" s="75"/>
-      <c r="G20" s="35">
+      <c r="F20" s="33"/>
+      <c r="G20" s="65">
         <v>6</v>
       </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="61"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="27"/>
       <c r="P20" s="7"/>
     </row>
-    <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="63"/>
+    <row r="21" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="29"/>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="28" t="s">
+    <row r="22" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="33">
+      <c r="B22" s="67"/>
+      <c r="C22" s="68">
         <v>4.1500000000000004</v>
       </c>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="26">
         <v>30</v>
       </c>
-      <c r="F22" s="61"/>
-      <c r="G22" s="35">
+      <c r="F22" s="27"/>
+      <c r="G22" s="65">
         <v>7</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="61"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="27"/>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="63"/>
+    <row r="23" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="29"/>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="40" t="s">
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="41" t="s">
+    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41" t="s">
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
       <c r="N25" s="21" t="s">
         <v>24</v>
       </c>
       <c r="O25" s="12"/>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="36" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="36"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="13">
         <v>10.24</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
       <c r="N26" s="14">
         <v>30</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="38" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="38"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="15">
         <v>10.25</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
       <c r="N27" s="16">
         <v>100</v>
       </c>
       <c r="O27" s="17"/>
       <c r="P27" s="7"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="36" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="36"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="13">
         <v>10.26</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
       <c r="N28" s="14">
         <v>100</v>
       </c>
       <c r="O28" s="11"/>
       <c r="P28" s="7"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="38" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="38"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="15">
         <v>10.27</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
       <c r="N29" s="22">
         <v>0.8</v>
       </c>
       <c r="O29" s="17"/>
       <c r="P29" s="7"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="36" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="36"/>
+      <c r="B30" s="63"/>
       <c r="C30" s="13">
         <v>10.28</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
       <c r="N30" s="14">
         <v>100</v>
       </c>
       <c r="O30" s="11"/>
       <c r="P30" s="7"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="38" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="38"/>
+      <c r="B31" s="61"/>
       <c r="C31" s="15">
         <v>10.29</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
       <c r="N31" s="16">
         <v>100</v>
       </c>
       <c r="O31" s="17"/>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="36" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="36"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
       <c r="N32" s="14">
         <v>60</v>
       </c>
       <c r="O32" s="11"/>
       <c r="P32" s="7"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="31" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="32"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="80"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="23" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="25"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="76"/>
       <c r="P34" s="7"/>
     </row>
-    <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="27"/>
+    <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="78"/>
       <c r="P35" s="7"/>
     </row>
-    <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2835,67 +2901,49 @@
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C39" s="7"/>
       <c r="D39" s="18"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D40" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="H18:K19"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="H14:K15"/>
     <mergeCell ref="N10:O11"/>
     <mergeCell ref="L12:M13"/>
     <mergeCell ref="A30:B30"/>
@@ -2912,36 +2960,54 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="L10:M11"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="H12:K13"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="A34:O35"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="H16:K17"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="A33:O33"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
@@ -2954,866 +3020,866 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.59765625" style="3" customWidth="1"/>
     <col min="3" max="3" width="8" style="3" customWidth="1"/>
     <col min="4" max="4" width="36" style="3" customWidth="1"/>
-    <col min="5" max="5" width="4.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="4.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.19921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.59765625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="4.8984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.09765625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.09765625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.59765625" style="3" customWidth="1"/>
     <col min="11" max="11" width="4.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="7.25" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="6.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.09765625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7.19921875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.8984375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.59765625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="6.8984375" style="3" customWidth="1"/>
     <col min="17" max="17" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.75" style="3" customWidth="1"/>
+    <col min="18" max="18" width="26.69921875" style="3" customWidth="1"/>
     <col min="19" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="52"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="39"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="42"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="56" t="s">
+    <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="56" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="58"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="45"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="60"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="47"/>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="80"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="90"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="50"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="53"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="40" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="43"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="56"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="41" t="s">
+    <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="67"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41" t="s">
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41" t="s">
+      <c r="M9" s="57"/>
+      <c r="N9" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="44"/>
+      <c r="O9" s="58"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="33">
+      <c r="B10" s="67"/>
+      <c r="C10" s="68">
         <v>4.18</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="88">
+      <c r="E10" s="85">
         <v>1</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="35">
+      <c r="F10" s="86"/>
+      <c r="G10" s="65">
         <v>1</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29" t="s">
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29" t="s">
+      <c r="M10" s="25"/>
+      <c r="N10" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="O10" s="30"/>
+      <c r="O10" s="66"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30"/>
+    <row r="11" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="66"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="33">
+      <c r="B12" s="67"/>
+      <c r="C12" s="68">
         <v>4.1900000000000004</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="85">
         <v>1</v>
       </c>
-      <c r="F12" s="85"/>
-      <c r="G12" s="35">
+      <c r="F12" s="86"/>
+      <c r="G12" s="65">
         <v>2</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29" t="s">
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29" t="s">
+      <c r="M12" s="25"/>
+      <c r="N12" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="O12" s="30"/>
+      <c r="O12" s="66"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="30"/>
+    <row r="13" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="66"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="34" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="85">
         <v>1</v>
       </c>
-      <c r="F14" s="85"/>
-      <c r="G14" s="35">
+      <c r="F14" s="86"/>
+      <c r="G14" s="65">
         <v>3</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29" t="s">
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29" t="s">
+      <c r="M14" s="25"/>
+      <c r="N14" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="30"/>
+      <c r="O14" s="66"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="30"/>
+    <row r="15" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="66"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="33">
+      <c r="B16" s="67"/>
+      <c r="C16" s="68">
         <v>4.21</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="85">
         <v>0.6</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="35">
+      <c r="F16" s="86"/>
+      <c r="G16" s="65">
         <v>4</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="30"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="66"/>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="30"/>
+    <row r="17" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="66"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="33">
+      <c r="B18" s="67"/>
+      <c r="C18" s="68">
         <v>4.22</v>
       </c>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="85">
         <v>1</v>
       </c>
-      <c r="F18" s="85"/>
-      <c r="G18" s="35">
+      <c r="F18" s="86"/>
+      <c r="G18" s="65">
         <v>5</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="61"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="27"/>
       <c r="P18" s="7"/>
     </row>
-    <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="63"/>
+    <row r="19" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="29"/>
       <c r="P19" s="7"/>
     </row>
-    <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="33">
+      <c r="B20" s="67"/>
+      <c r="C20" s="68">
         <v>4.2300000000000004</v>
       </c>
-      <c r="D20" s="68"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="81"/>
       <c r="F20" s="82"/>
-      <c r="G20" s="35">
+      <c r="G20" s="65">
         <v>6</v>
       </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="61"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="27"/>
       <c r="P20" s="7"/>
     </row>
-    <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="69"/>
+    <row r="21" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="83"/>
       <c r="F21" s="84"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="63"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="29"/>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="28" t="s">
+    <row r="22" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="33">
+      <c r="B22" s="67"/>
+      <c r="C22" s="68">
         <v>4.24</v>
       </c>
-      <c r="D22" s="68"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="81"/>
       <c r="F22" s="82"/>
-      <c r="G22" s="35">
+      <c r="G22" s="65">
         <v>7</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="61"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="27"/>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="69"/>
+    <row r="23" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="83"/>
       <c r="F23" s="84"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="63"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="29"/>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="40" t="s">
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="41" t="s">
+    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41" t="s">
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
       <c r="N25" s="21" t="s">
         <v>24</v>
       </c>
       <c r="O25" s="12"/>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="36" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="36"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="13">
         <v>4.25</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="89">
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="23">
         <v>0.3</v>
       </c>
       <c r="O26" s="11"/>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="38" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="38"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="15">
         <v>4.26</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
       <c r="N27" s="22">
         <v>0.2</v>
       </c>
       <c r="O27" s="17"/>
       <c r="P27" s="7"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="36" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="36"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="13">
         <v>4.2699999999999996</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="89">
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="23">
         <v>1</v>
       </c>
       <c r="O28" s="11"/>
       <c r="P28" s="7"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="38" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="38"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="15">
         <v>4.28</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
       <c r="N29" s="22">
         <v>1</v>
       </c>
       <c r="O29" s="17"/>
       <c r="P29" s="7"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="36" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="36"/>
+      <c r="B30" s="63"/>
       <c r="C30" s="13">
         <v>4.29</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="89">
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="23">
         <v>0.4</v>
       </c>
       <c r="O30" s="11"/>
       <c r="P30" s="7"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="38" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="90" t="s">
+      <c r="B31" s="61"/>
+      <c r="C31" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="36" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="36"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="13">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
       <c r="P32" s="7"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="31" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="32"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="80"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="23" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="25"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="76"/>
       <c r="P34" s="7"/>
     </row>
-    <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="27"/>
+    <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="78"/>
       <c r="P35" s="7"/>
     </row>
-    <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -3830,31 +3896,86 @@
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C39" s="7"/>
       <c r="D39" s="18"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D40" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A34:O35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:K19"/>
     <mergeCell ref="N22:O23"/>
     <mergeCell ref="A24:N24"/>
     <mergeCell ref="A25:C25"/>
@@ -3870,6 +3991,830 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:K23"/>
     <mergeCell ref="L22:M23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+  </mergeCells>
+  <phoneticPr fontId="38" type="noConversion"/>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
+  <pageSetup paperSize="9" scale="95" firstPageNumber="4294963191" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F7E36B-0560-4A09-B53C-F062C5A7754C}">
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="39"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="42"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="45"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="47"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="9">
+        <v>2</v>
+      </c>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="90"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="53"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="56"/>
+    </row>
+    <row r="9" spans="1:15" ht="24" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="60"/>
+      <c r="G9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="58"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68">
+        <v>4.25</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="85">
+        <v>1</v>
+      </c>
+      <c r="F10" s="86"/>
+      <c r="G10" s="65">
+        <v>1</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="66"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="66"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="67"/>
+      <c r="C12" s="68">
+        <v>4.26</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="85">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="86"/>
+      <c r="G12" s="65">
+        <v>2</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="66"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="66"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="67"/>
+      <c r="C14" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="85">
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="86"/>
+      <c r="G14" s="65">
+        <v>3</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="66"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="66"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68">
+        <v>4.28</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="85">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="86"/>
+      <c r="G16" s="65">
+        <v>4</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="66"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="66"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="67"/>
+      <c r="C18" s="68">
+        <v>4.29</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="85">
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="86"/>
+      <c r="G18" s="65">
+        <v>5</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="27"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="29"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="65">
+        <v>6</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="27"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="29"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="65">
+        <v>7</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="27"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="29"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" ht="24" x14ac:dyDescent="0.25">
+      <c r="A25" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="63"/>
+      <c r="C26" s="13">
+        <v>4.25</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="61"/>
+      <c r="C27" s="15">
+        <v>4.26</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="63"/>
+      <c r="C28" s="13">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="23">
+        <v>1</v>
+      </c>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="61"/>
+      <c r="C29" s="15">
+        <v>4.28</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="22">
+        <v>1</v>
+      </c>
+      <c r="O29" s="17"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="63"/>
+      <c r="C30" s="13">
+        <v>4.29</v>
+      </c>
+      <c r="D30" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="23">
+        <v>1</v>
+      </c>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="61"/>
+      <c r="C31" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="17"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="63"/>
+      <c r="C32" s="13">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="80"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="76"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="78"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:K23"/>
     <mergeCell ref="L18:M19"/>
     <mergeCell ref="N18:O19"/>
     <mergeCell ref="A20:B21"/>
@@ -3939,8 +4884,6 @@
     <mergeCell ref="H4:O4"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
-  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
-  <pageSetup paperSize="9" scale="95" firstPageNumber="4294963191" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/周报/冯奕程-2018141411234.xlsx
+++ b/周报/冯奕程-2018141411234.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\class\软件项目管理\SotfwareManagement_CovidAid\周报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BF137D-E433-4775-98F4-DBB4C50EF3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BE0AAE-7AB0-4490-838F-29794CDFB53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第08周工作周报" sheetId="7" r:id="rId1"/>
     <sheet name="第09周工作周报" sheetId="9" r:id="rId2"/>
     <sheet name="第10周工作周报" sheetId="10" r:id="rId3"/>
+    <sheet name="第11周工作周报" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">第08周工作周报!$A$1:$O$35</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="99">
   <si>
     <t>本周工作总结</t>
   </si>
@@ -458,6 +459,57 @@
       <t xml:space="preserve">日期：2022.4.29       </t>
     </r>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">工作周报    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">日期：2022.05.06      </t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求迭代分析</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计单元测试</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写测试案例</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新需求说明书</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.04</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写测试用例</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合，需求迭代</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1 0</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.14</t>
+    <phoneticPr fontId="38" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1389,173 +1441,191 @@
     <xf numFmtId="49" fontId="33" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1568,24 +1638,6 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2043,69 +2095,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="39"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="71"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="42"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="43" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="45"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="77"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -2114,530 +2166,530 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="47"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="79"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="49"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="65"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="51"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="67"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="53"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="69"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="54" t="s">
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="56"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="60"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="60"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57" t="s">
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57" t="s">
+      <c r="M9" s="51"/>
+      <c r="N9" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="58"/>
+      <c r="O9" s="61"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="68">
+      <c r="B10" s="30"/>
+      <c r="C10" s="35">
         <v>4.09</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="70">
+      <c r="E10" s="38">
         <v>29</v>
       </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="65">
+      <c r="F10" s="39"/>
+      <c r="G10" s="36">
         <v>1</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25" t="s">
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25" t="s">
+      <c r="M10" s="31"/>
+      <c r="N10" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="66"/>
+      <c r="O10" s="32"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="66"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="32"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="69" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="44">
         <v>50</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="65">
+      <c r="F12" s="45"/>
+      <c r="G12" s="36">
         <v>2</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25" t="s">
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25" t="s">
+      <c r="M12" s="31"/>
+      <c r="N12" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="O12" s="66"/>
+      <c r="O12" s="32"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="66"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="32"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68">
+      <c r="B14" s="30"/>
+      <c r="C14" s="35">
         <v>4.1100000000000003</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="44">
         <v>100</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="65">
+      <c r="F14" s="45"/>
+      <c r="G14" s="36">
         <v>3</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="66"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="32"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="66"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68">
+      <c r="B16" s="30"/>
+      <c r="C16" s="35">
         <v>4.12</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="44">
         <v>100</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="65">
+      <c r="F16" s="45"/>
+      <c r="G16" s="36">
         <v>4</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="66"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="32"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="66"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="32"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68">
+      <c r="B18" s="30"/>
+      <c r="C18" s="35">
         <v>4.13</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="80">
         <v>100</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="65">
+      <c r="F18" s="45"/>
+      <c r="G18" s="36">
         <v>5</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="27"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="52"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="29"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="54"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68">
+      <c r="B20" s="30"/>
+      <c r="C20" s="35">
         <v>4.1399999999999997</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="80">
         <v>20</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="65">
+      <c r="F20" s="45"/>
+      <c r="G20" s="36">
         <v>6</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="27"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="52"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="29"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="54"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68">
+      <c r="B22" s="30"/>
+      <c r="C22" s="35">
         <v>4.1500000000000004</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="55">
         <v>30</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="65">
+      <c r="F22" s="52"/>
+      <c r="G22" s="36">
         <v>7</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="27"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="52"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="29"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="54"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57" t="s">
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
       <c r="N25" s="21" t="s">
         <v>24</v>
       </c>
@@ -2645,25 +2697,25 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="63"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="13">
         <v>10.24</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
       <c r="N26" s="14">
         <v>30</v>
       </c>
@@ -2671,25 +2723,25 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="61"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="15">
         <v>10.25</v>
       </c>
-      <c r="D27" s="62" t="s">
+      <c r="D27" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
       <c r="N27" s="16">
         <v>100</v>
       </c>
@@ -2697,25 +2749,25 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="63"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="13">
         <v>10.26</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
       <c r="N28" s="14">
         <v>100</v>
       </c>
@@ -2723,25 +2775,25 @@
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="61"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="15">
         <v>10.27</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
       <c r="N29" s="22">
         <v>0.8</v>
       </c>
@@ -2749,25 +2801,25 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="63"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="13">
         <v>10.28</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
       <c r="N30" s="14">
         <v>100</v>
       </c>
@@ -2775,25 +2827,25 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="61"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="15">
         <v>10.29</v>
       </c>
-      <c r="D31" s="62" t="s">
+      <c r="D31" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
       <c r="N31" s="16">
         <v>100</v>
       </c>
@@ -2801,25 +2853,25 @@
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="63"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="64" t="s">
+      <c r="D32" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
       <c r="N32" s="14">
         <v>60</v>
       </c>
@@ -2827,61 +2879,61 @@
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="80"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="34"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="27"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="78"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="29"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2914,6 +2966,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
     <mergeCell ref="A34:O35"/>
     <mergeCell ref="A18:B19"/>
     <mergeCell ref="A20:B21"/>
@@ -2930,84 +3060,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="H12:K13"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="H20:K21"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="H18:K19"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
@@ -3048,69 +3100,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="39"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="71"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="42"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="43" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="45"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="77"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -3119,528 +3171,528 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="47"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="79"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="53"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="69"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="90"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="82"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="53"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="69"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="54" t="s">
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="56"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="60"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="60"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57" t="s">
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57" t="s">
+      <c r="M9" s="51"/>
+      <c r="N9" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="58"/>
+      <c r="O9" s="61"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="68">
+      <c r="B10" s="30"/>
+      <c r="C10" s="35">
         <v>4.18</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="83">
         <v>1</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="65">
+      <c r="F10" s="84"/>
+      <c r="G10" s="36">
         <v>1</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25" t="s">
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25" t="s">
+      <c r="M10" s="31"/>
+      <c r="N10" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="O10" s="66"/>
+      <c r="O10" s="32"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="66"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="32"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68">
+      <c r="B12" s="30"/>
+      <c r="C12" s="35">
         <v>4.1900000000000004</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="83">
         <v>1</v>
       </c>
-      <c r="F12" s="86"/>
-      <c r="G12" s="65">
+      <c r="F12" s="84"/>
+      <c r="G12" s="36">
         <v>2</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25" t="s">
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25" t="s">
+      <c r="M12" s="31"/>
+      <c r="N12" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="O12" s="66"/>
+      <c r="O12" s="32"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="66"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="32"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="69" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="85">
+      <c r="E14" s="83">
         <v>1</v>
       </c>
-      <c r="F14" s="86"/>
-      <c r="G14" s="65">
+      <c r="F14" s="84"/>
+      <c r="G14" s="36">
         <v>3</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25" t="s">
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25" t="s">
+      <c r="M14" s="31"/>
+      <c r="N14" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="66"/>
+      <c r="O14" s="32"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="66"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68">
+      <c r="B16" s="30"/>
+      <c r="C16" s="35">
         <v>4.21</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="85">
+      <c r="E16" s="83">
         <v>0.6</v>
       </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="65">
+      <c r="F16" s="84"/>
+      <c r="G16" s="36">
         <v>4</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="66"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="32"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="66"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="32"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68">
+      <c r="B18" s="30"/>
+      <c r="C18" s="35">
         <v>4.22</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="85">
+      <c r="E18" s="83">
         <v>1</v>
       </c>
-      <c r="F18" s="86"/>
-      <c r="G18" s="65">
+      <c r="F18" s="84"/>
+      <c r="G18" s="36">
         <v>5</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="27"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="52"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="29"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="54"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68">
+      <c r="B20" s="30"/>
+      <c r="C20" s="35">
         <v>4.2300000000000004</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="65">
+      <c r="D20" s="42"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="36">
         <v>6</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="27"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="52"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="29"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="54"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68">
+      <c r="B22" s="30"/>
+      <c r="C22" s="35">
         <v>4.24</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="65">
+      <c r="D22" s="42"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="36">
         <v>7</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="27"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="52"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="29"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="54"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57" t="s">
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
       <c r="N25" s="21" t="s">
         <v>24</v>
       </c>
@@ -3648,25 +3700,25 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="63"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="13">
         <v>4.25</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
       <c r="N26" s="23">
         <v>0.3</v>
       </c>
@@ -3674,25 +3726,25 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="61"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="15">
         <v>4.26</v>
       </c>
-      <c r="D27" s="62" t="s">
+      <c r="D27" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
       <c r="N27" s="22">
         <v>0.2</v>
       </c>
@@ -3700,25 +3752,25 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="63"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="13">
         <v>4.2699999999999996</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
       <c r="N28" s="23">
         <v>1</v>
       </c>
@@ -3726,25 +3778,25 @@
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="61"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="15">
         <v>4.28</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
       <c r="N29" s="22">
         <v>1</v>
       </c>
@@ -3752,25 +3804,25 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="63"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="13">
         <v>4.29</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
       <c r="N30" s="23">
         <v>0.4</v>
       </c>
@@ -3778,105 +3830,105 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="61"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="63"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="13">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="80"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="34"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="27"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="78"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="29"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3906,6 +3958,885 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D40" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+  </mergeCells>
+  <phoneticPr fontId="38" type="noConversion"/>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
+  <pageSetup paperSize="9" scale="95" firstPageNumber="4294963191" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F7E36B-0560-4A09-B53C-F062C5A7754C}">
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A1:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="71"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="77"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="79"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="69"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="9">
+        <v>2</v>
+      </c>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="82"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="69"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="60"/>
+    </row>
+    <row r="9" spans="1:15" ht="24" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="63"/>
+      <c r="G9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="61"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="35">
+        <v>4.25</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="83">
+        <v>1</v>
+      </c>
+      <c r="F10" s="84"/>
+      <c r="G10" s="36">
+        <v>1</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="32"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="32"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="35">
+        <v>4.26</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="83">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="84"/>
+      <c r="G12" s="36">
+        <v>2</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="32"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="32"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="83">
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="84"/>
+      <c r="G14" s="36">
+        <v>3</v>
+      </c>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="32"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="35">
+        <v>4.28</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="84"/>
+      <c r="G16" s="36">
+        <v>4</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="32"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="32"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="35">
+        <v>4.29</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="83">
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="84"/>
+      <c r="G18" s="36">
+        <v>5</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="52"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="54"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="36">
+        <v>6</v>
+      </c>
+      <c r="H20" s="31"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="52"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="54"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="36">
+        <v>7</v>
+      </c>
+      <c r="H22" s="31"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="52"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="54"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" ht="24" x14ac:dyDescent="0.25">
+      <c r="A25" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="48"/>
+      <c r="C26" s="13">
+        <v>4.25</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="57"/>
+      <c r="C27" s="15">
+        <v>4.26</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="48"/>
+      <c r="C28" s="13">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="23">
+        <v>1</v>
+      </c>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="57"/>
+      <c r="C29" s="15">
+        <v>4.28</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="22">
+        <v>1</v>
+      </c>
+      <c r="O29" s="17"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="48"/>
+      <c r="C30" s="13">
+        <v>4.29</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="23">
+        <v>1</v>
+      </c>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="57"/>
+      <c r="C31" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="17"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="48"/>
+      <c r="C32" s="13">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="34"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="27"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -3976,12 +4907,6 @@
     <mergeCell ref="E18:F19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:K19"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="D26:M26"/>
     <mergeCell ref="A22:B23"/>
@@ -3991,6 +4916,12 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:K23"/>
     <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="D28:M28"/>
     <mergeCell ref="A29:B29"/>
@@ -4005,786 +4936,794 @@
     <mergeCell ref="D32:M32"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
-  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
-  <pageSetup paperSize="9" scale="95" firstPageNumber="4294963191" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F7E36B-0560-4A09-B53C-F062C5A7754C}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EFB397-44C7-43FA-A788-A0B14C1D6B63}">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="39"/>
+      <c r="A1" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="71"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="42"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
     </row>
     <row r="3" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="43" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="45"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="77"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="47"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="79"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="B5" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="53"/>
+      <c r="H5" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="69"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="90"/>
+      <c r="H6" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="82"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="53"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="69"/>
     </row>
     <row r="8" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="54" t="s">
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="56"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="60"/>
     </row>
     <row r="9" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="60"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57" t="s">
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57" t="s">
+      <c r="M9" s="51"/>
+      <c r="N9" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="58"/>
+      <c r="O9" s="61"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="68">
-        <v>4.25</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="85">
+      <c r="B10" s="30"/>
+      <c r="C10" s="35">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="83">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="84"/>
+      <c r="G10" s="36">
         <v>1</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="65">
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="32"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="32"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="35">
+        <v>5.03</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="83">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="84"/>
+      <c r="G12" s="36">
+        <v>2</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="32"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="32"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="83">
         <v>1</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="66"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="66"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68">
-        <v>4.26</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="85">
-        <v>0.2</v>
-      </c>
-      <c r="F12" s="86"/>
-      <c r="G12" s="65">
-        <v>2</v>
-      </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="66"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="66"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="85">
-        <v>0.3</v>
-      </c>
-      <c r="F14" s="86"/>
-      <c r="G14" s="65">
+      <c r="F14" s="84"/>
+      <c r="G14" s="36">
         <v>3</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="66"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="32"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="66"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68">
-        <v>4.28</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="85">
+      <c r="B16" s="30"/>
+      <c r="C16" s="35">
+        <v>5.05</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="83">
         <v>0.5</v>
       </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="65">
+      <c r="F16" s="84"/>
+      <c r="G16" s="36">
         <v>4</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="66"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="32"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="66"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="32"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68">
-        <v>4.29</v>
-      </c>
-      <c r="D18" s="30" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="35">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="D18" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="85">
-        <v>0.3</v>
-      </c>
-      <c r="F18" s="86"/>
-      <c r="G18" s="65">
+      <c r="E18" s="83">
+        <v>1</v>
+      </c>
+      <c r="F18" s="84"/>
+      <c r="G18" s="36">
         <v>5</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="27"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="52"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="29"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="54"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="65">
+      <c r="B20" s="30"/>
+      <c r="C20" s="35">
+        <v>5.07</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="83">
+        <v>1</v>
+      </c>
+      <c r="F20" s="84"/>
+      <c r="G20" s="36">
         <v>6</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="27"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="52"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="29"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="54"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="65">
+      <c r="B22" s="30"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="36">
         <v>7</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="27"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="52"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="29"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="54"/>
     </row>
     <row r="24" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57" t="s">
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
       <c r="N25" s="21" t="s">
         <v>24</v>
       </c>
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="63"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="13">
-        <v>4.25</v>
-      </c>
-      <c r="D26" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
+        <v>5.09</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
       <c r="N26" s="23">
         <v>0.7</v>
       </c>
       <c r="O26" s="11"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="15">
-        <v>4.26</v>
-      </c>
-      <c r="D27" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
       <c r="N27" s="22">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O27" s="17"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="63"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="13">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="D28" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
       <c r="N28" s="23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="61"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="15">
-        <v>4.28</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
+        <v>5.12</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
       <c r="N29" s="22">
         <v>1</v>
       </c>
       <c r="O29" s="17"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="63"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="13">
-        <v>4.29</v>
-      </c>
-      <c r="D30" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
+        <v>5.13</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
       <c r="N30" s="23">
         <v>1</v>
       </c>
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="61"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
+        <v>98</v>
+      </c>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="63"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="13">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
+        <v>5.15</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="80"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="34"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="27"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="78"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="94">

--- a/周报/冯奕程-2018141411234.xlsx
+++ b/周报/冯奕程-2018141411234.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\class\软件项目管理\SotfwareManagement_CovidAid\周报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BE0AAE-7AB0-4490-838F-29794CDFB53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935B9489-E59B-433C-84EB-74B92DE459BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第08周工作周报" sheetId="7" r:id="rId1"/>
     <sheet name="第09周工作周报" sheetId="9" r:id="rId2"/>
     <sheet name="第10周工作周报" sheetId="10" r:id="rId3"/>
     <sheet name="第11周工作周报" sheetId="11" r:id="rId4"/>
+    <sheet name="第12周工作周报" sheetId="12" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">第08周工作周报!$A$1:$O$35</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="119">
   <si>
     <t>本周工作总结</t>
   </si>
@@ -511,11 +512,105 @@
     <t>5.14</t>
     <phoneticPr fontId="38" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">工作周报    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">日期：2022/5/13          </t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.17</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.19</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.20</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.21</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名：冯奕程                                                                                       组长：杨蔡胤</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成医患聊天模块测试设计</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写测试用例</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复医患交流模块bug</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>撰写模块使用说明书</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成测试</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>医患聊天系统单元测试设计</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>医患聊天系统测试用例编写</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复现有BUG</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>广播消息传递存在问题</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>debug</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成测试设计</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块化部署</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周工作总结： 本周主要工作为医患聊天系统实现。进度正常。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -936,7 +1031,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1250,6 +1345,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
@@ -1379,7 +1487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1441,6 +1549,153 @@
     <xf numFmtId="49" fontId="33" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1456,157 +1711,34 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1615,29 +1747,129 @@
     <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="27" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="33" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="24" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2095,69 +2327,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="71"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="40"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="74"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="75" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="77"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="46"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -2166,530 +2398,530 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="78" t="s">
+      <c r="H4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="79"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="48"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="65"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="50"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="66" t="s">
+      <c r="H6" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="67"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="52"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="69"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="54"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="50" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="60"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="57"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="63"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51" t="s">
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51" t="s">
+      <c r="M9" s="58"/>
+      <c r="N9" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="61"/>
+      <c r="O9" s="59"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="35">
+      <c r="B10" s="67"/>
+      <c r="C10" s="68">
         <v>4.09</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="70">
         <v>29</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="36">
+      <c r="F10" s="71"/>
+      <c r="G10" s="37">
         <v>1</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31" t="s">
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31" t="s">
+      <c r="M10" s="25"/>
+      <c r="N10" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="32"/>
+      <c r="O10" s="66"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="66"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="37" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="32">
         <v>50</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="36">
+      <c r="F12" s="33"/>
+      <c r="G12" s="37">
         <v>2</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31" t="s">
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31" t="s">
+      <c r="M12" s="25"/>
+      <c r="N12" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="O12" s="32"/>
+      <c r="O12" s="66"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="32"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="66"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="35">
+      <c r="B14" s="67"/>
+      <c r="C14" s="68">
         <v>4.1100000000000003</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="32">
         <v>100</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="36">
+      <c r="F14" s="33"/>
+      <c r="G14" s="37">
         <v>3</v>
       </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="32"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="66"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="32"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="66"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="35">
+      <c r="B16" s="67"/>
+      <c r="C16" s="68">
         <v>4.12</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="32">
         <v>100</v>
       </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="36">
+      <c r="F16" s="33"/>
+      <c r="G16" s="37">
         <v>4</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="32"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="66"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="32"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="66"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="35">
+      <c r="B18" s="67"/>
+      <c r="C18" s="68">
         <v>4.13</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="36">
         <v>100</v>
       </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="36">
+      <c r="F18" s="33"/>
+      <c r="G18" s="37">
         <v>5</v>
       </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="52"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="27"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="29"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="35">
+      <c r="B20" s="67"/>
+      <c r="C20" s="68">
         <v>4.1399999999999997</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="80">
+      <c r="E20" s="36">
         <v>20</v>
       </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="36">
+      <c r="F20" s="33"/>
+      <c r="G20" s="37">
         <v>6</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="52"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="27"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="54"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="29"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="35">
+      <c r="B22" s="67"/>
+      <c r="C22" s="68">
         <v>4.1500000000000004</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E22" s="26">
         <v>30</v>
       </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="36">
+      <c r="F22" s="27"/>
+      <c r="G22" s="37">
         <v>7</v>
       </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="52"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="27"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="54"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="29"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51" t="s">
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
       <c r="N25" s="21" t="s">
         <v>24</v>
       </c>
@@ -2697,25 +2929,25 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="48"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="13">
         <v>10.24</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
       <c r="N26" s="14">
         <v>30</v>
       </c>
@@ -2723,25 +2955,25 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="57"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="15">
         <v>10.25</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
       <c r="N27" s="16">
         <v>100</v>
       </c>
@@ -2749,25 +2981,25 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="48"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="13">
         <v>10.26</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
       <c r="N28" s="14">
         <v>100</v>
       </c>
@@ -2775,25 +3007,25 @@
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="57"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="15">
         <v>10.27</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
       <c r="N29" s="22">
         <v>0.8</v>
       </c>
@@ -2801,25 +3033,25 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="48"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="13">
         <v>10.28</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
       <c r="N30" s="14">
         <v>100</v>
       </c>
@@ -2827,25 +3059,25 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="57"/>
+      <c r="B31" s="62"/>
       <c r="C31" s="15">
         <v>10.29</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
       <c r="N31" s="16">
         <v>100</v>
       </c>
@@ -2853,25 +3085,25 @@
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="48"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
       <c r="N32" s="14">
         <v>60</v>
       </c>
@@ -2879,61 +3111,61 @@
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="34"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="80"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="27"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="76"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="29"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="78"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2966,54 +3198,36 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="H18:K19"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="H14:K15"/>
     <mergeCell ref="N10:O11"/>
     <mergeCell ref="L12:M13"/>
     <mergeCell ref="A30:B30"/>
@@ -3030,36 +3244,54 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="L10:M11"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="H12:K13"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="A34:O35"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="H16:K17"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="A33:O33"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
@@ -3100,69 +3332,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="71"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="40"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="74"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="75" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="77"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="46"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -3171,528 +3403,528 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="78" t="s">
+      <c r="H4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="79"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="48"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="69"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="54"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="82"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="90"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="69"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="54"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="50" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="60"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="57"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="63"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51" t="s">
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51" t="s">
+      <c r="M9" s="58"/>
+      <c r="N9" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="61"/>
+      <c r="O9" s="59"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="35">
+      <c r="B10" s="67"/>
+      <c r="C10" s="68">
         <v>4.18</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="83">
+      <c r="E10" s="85">
         <v>1</v>
       </c>
-      <c r="F10" s="84"/>
-      <c r="G10" s="36">
+      <c r="F10" s="86"/>
+      <c r="G10" s="37">
         <v>1</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31" t="s">
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31" t="s">
+      <c r="M10" s="25"/>
+      <c r="N10" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="O10" s="32"/>
+      <c r="O10" s="66"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="66"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="35">
+      <c r="B12" s="67"/>
+      <c r="C12" s="68">
         <v>4.1900000000000004</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="83">
+      <c r="E12" s="85">
         <v>1</v>
       </c>
-      <c r="F12" s="84"/>
-      <c r="G12" s="36">
+      <c r="F12" s="86"/>
+      <c r="G12" s="37">
         <v>2</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31" t="s">
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31" t="s">
+      <c r="M12" s="25"/>
+      <c r="N12" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="O12" s="32"/>
+      <c r="O12" s="66"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="32"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="66"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="83">
+      <c r="E14" s="85">
         <v>1</v>
       </c>
-      <c r="F14" s="84"/>
-      <c r="G14" s="36">
+      <c r="F14" s="86"/>
+      <c r="G14" s="37">
         <v>3</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31" t="s">
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31" t="s">
+      <c r="M14" s="25"/>
+      <c r="N14" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="32"/>
+      <c r="O14" s="66"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="32"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="66"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="35">
+      <c r="B16" s="67"/>
+      <c r="C16" s="68">
         <v>4.21</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="83">
+      <c r="E16" s="85">
         <v>0.6</v>
       </c>
-      <c r="F16" s="84"/>
-      <c r="G16" s="36">
+      <c r="F16" s="86"/>
+      <c r="G16" s="37">
         <v>4</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="32"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="66"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="32"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="66"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="35">
+      <c r="B18" s="67"/>
+      <c r="C18" s="68">
         <v>4.22</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="83">
+      <c r="E18" s="85">
         <v>1</v>
       </c>
-      <c r="F18" s="84"/>
-      <c r="G18" s="36">
+      <c r="F18" s="86"/>
+      <c r="G18" s="37">
         <v>5</v>
       </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="52"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="27"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="29"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="35">
+      <c r="B20" s="67"/>
+      <c r="C20" s="68">
         <v>4.2300000000000004</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="36">
+      <c r="D20" s="30"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="37">
         <v>6</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="52"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="27"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="54"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="29"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="35">
+      <c r="B22" s="67"/>
+      <c r="C22" s="68">
         <v>4.24</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="36">
+      <c r="D22" s="30"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="37">
         <v>7</v>
       </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="52"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="27"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="54"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="29"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51" t="s">
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
       <c r="N25" s="21" t="s">
         <v>24</v>
       </c>
@@ -3700,25 +3932,25 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="48"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="13">
         <v>4.25</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
       <c r="N26" s="23">
         <v>0.3</v>
       </c>
@@ -3726,25 +3958,25 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="57"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="15">
         <v>4.26</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
       <c r="N27" s="22">
         <v>0.2</v>
       </c>
@@ -3752,25 +3984,25 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="48"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="13">
         <v>4.2699999999999996</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
       <c r="N28" s="23">
         <v>1</v>
       </c>
@@ -3778,25 +4010,25 @@
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="57"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="15">
         <v>4.28</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
       <c r="N29" s="22">
         <v>1</v>
       </c>
@@ -3804,25 +4036,25 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="48"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="13">
         <v>4.29</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
       <c r="N30" s="23">
         <v>0.4</v>
       </c>
@@ -3830,105 +4062,105 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="57"/>
+      <c r="B31" s="62"/>
       <c r="C31" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="48"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="13">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="34"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="80"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="27"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="76"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="29"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="78"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3958,6 +4190,885 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D40" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+  </mergeCells>
+  <phoneticPr fontId="38" type="noConversion"/>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
+  <pageSetup paperSize="9" scale="95" firstPageNumber="4294963191" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F7E36B-0560-4A09-B53C-F062C5A7754C}">
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="40"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="46"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="48"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="54"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="9">
+        <v>2</v>
+      </c>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="90"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="54"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="57"/>
+    </row>
+    <row r="9" spans="1:15" ht="24" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="61"/>
+      <c r="G9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="59"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68">
+        <v>4.25</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="85">
+        <v>1</v>
+      </c>
+      <c r="F10" s="86"/>
+      <c r="G10" s="37">
+        <v>1</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="66"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="66"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="67"/>
+      <c r="C12" s="68">
+        <v>4.26</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="85">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="86"/>
+      <c r="G12" s="37">
+        <v>2</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="66"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="66"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="67"/>
+      <c r="C14" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="85">
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="86"/>
+      <c r="G14" s="37">
+        <v>3</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="66"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="66"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68">
+        <v>4.28</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="85">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="86"/>
+      <c r="G16" s="37">
+        <v>4</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="66"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="66"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="67"/>
+      <c r="C18" s="68">
+        <v>4.29</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="85">
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="86"/>
+      <c r="G18" s="37">
+        <v>5</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="27"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="29"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="37">
+        <v>6</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="27"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="29"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="37">
+        <v>7</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="27"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="29"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" ht="24" x14ac:dyDescent="0.25">
+      <c r="A25" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="64"/>
+      <c r="C26" s="13">
+        <v>4.25</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="62"/>
+      <c r="C27" s="15">
+        <v>4.26</v>
+      </c>
+      <c r="D27" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="64"/>
+      <c r="C28" s="13">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="23">
+        <v>1</v>
+      </c>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="62"/>
+      <c r="C29" s="15">
+        <v>4.28</v>
+      </c>
+      <c r="D29" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="22">
+        <v>1</v>
+      </c>
+      <c r="O29" s="17"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="64"/>
+      <c r="C30" s="13">
+        <v>4.29</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="23">
+        <v>1</v>
+      </c>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="62"/>
+      <c r="C31" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="17"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="64"/>
+      <c r="C32" s="13">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="80"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="76"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -4057,786 +5168,794 @@
     <mergeCell ref="H4:O4"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
-  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
-  <pageSetup paperSize="9" scale="95" firstPageNumber="4294963191" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F7E36B-0560-4A09-B53C-F062C5A7754C}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EFB397-44C7-43FA-A788-A0B14C1D6B63}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A1:O35"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="71"/>
+      <c r="A1" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="74"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="75" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="77"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="46"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="78" t="s">
+      <c r="H4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="79"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="48"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
+      <c r="B5" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="69"/>
+      <c r="H5" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="54"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="B6" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="82"/>
+      <c r="H6" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="90"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="69"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="54"/>
     </row>
     <row r="8" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="50" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="60"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="57"/>
     </row>
     <row r="9" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="63"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51" t="s">
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51" t="s">
+      <c r="M9" s="58"/>
+      <c r="N9" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="61"/>
+      <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="35">
-        <v>4.25</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="83">
+      <c r="B10" s="67"/>
+      <c r="C10" s="68">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="85">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="86"/>
+      <c r="G10" s="37">
         <v>1</v>
       </c>
-      <c r="F10" s="84"/>
-      <c r="G10" s="36">
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="66"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="66"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="67"/>
+      <c r="C12" s="68">
+        <v>5.03</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="85">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="86"/>
+      <c r="G12" s="37">
+        <v>2</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="66"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="66"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="67"/>
+      <c r="C14" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="85">
         <v>1</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="32"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="35">
-        <v>4.26</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="83">
-        <v>0.2</v>
-      </c>
-      <c r="F12" s="84"/>
-      <c r="G12" s="36">
-        <v>2</v>
-      </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="32"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="32"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="83">
-        <v>0.3</v>
-      </c>
-      <c r="F14" s="84"/>
-      <c r="G14" s="36">
+      <c r="F14" s="86"/>
+      <c r="G14" s="37">
         <v>3</v>
       </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="32"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="66"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="32"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="66"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="35">
-        <v>4.28</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="83">
+      <c r="B16" s="67"/>
+      <c r="C16" s="68">
+        <v>5.05</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="85">
         <v>0.5</v>
       </c>
-      <c r="F16" s="84"/>
-      <c r="G16" s="36">
+      <c r="F16" s="86"/>
+      <c r="G16" s="37">
         <v>4</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="32"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="66"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="32"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="66"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="35">
-        <v>4.29</v>
-      </c>
-      <c r="D18" s="42" t="s">
+      <c r="B18" s="67"/>
+      <c r="C18" s="68">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="83">
-        <v>0.3</v>
-      </c>
-      <c r="F18" s="84"/>
-      <c r="G18" s="36">
+      <c r="E18" s="85">
+        <v>1</v>
+      </c>
+      <c r="F18" s="86"/>
+      <c r="G18" s="37">
         <v>5</v>
       </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="52"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="27"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="29"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="36">
+      <c r="B20" s="67"/>
+      <c r="C20" s="68">
+        <v>5.07</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="85">
+        <v>1</v>
+      </c>
+      <c r="F20" s="86"/>
+      <c r="G20" s="37">
         <v>6</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="52"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="27"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="54"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="29"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="36">
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="37">
         <v>7</v>
       </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="52"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="27"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="54"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="29"/>
     </row>
     <row r="24" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51" t="s">
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
       <c r="N25" s="21" t="s">
         <v>24</v>
       </c>
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="48"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="13">
-        <v>4.25</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
+        <v>5.09</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
       <c r="N26" s="23">
         <v>0.7</v>
       </c>
       <c r="O26" s="11"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="15">
-        <v>4.26</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
       <c r="N27" s="22">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O27" s="17"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="48"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="13">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
       <c r="N28" s="23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="57"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="15">
-        <v>4.28</v>
-      </c>
-      <c r="D29" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
+        <v>5.12</v>
+      </c>
+      <c r="D29" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
       <c r="N29" s="22">
         <v>1</v>
       </c>
       <c r="O29" s="17"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="48"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="13">
-        <v>4.29</v>
-      </c>
-      <c r="D30" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
+        <v>5.13</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
       <c r="N30" s="23">
         <v>1</v>
       </c>
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="57"/>
+      <c r="B31" s="62"/>
       <c r="C31" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
+        <v>98</v>
+      </c>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="48"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="13">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
+        <v>5.15</v>
+      </c>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="34"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="80"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="27"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="76"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="29"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -4940,790 +6059,798 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EFB397-44C7-43FA-A788-A0B14C1D6B63}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB036B02-BC27-485C-94FE-2282402EC7D9}">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="D30" sqref="D30:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="71"/>
+      <c r="A1" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="74"/>
+      <c r="A2" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="91"/>
     </row>
     <row r="3" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="75" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="77"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="94"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="19" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="78" t="s">
+      <c r="H4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="79"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="48"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="96">
         <v>1</v>
       </c>
-      <c r="B5" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="8">
+      <c r="B5" s="97" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="96">
         <v>1</v>
       </c>
-      <c r="H5" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="69"/>
+      <c r="H5" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="99"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="B6" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="82"/>
+      <c r="H6" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="90"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="96">
         <v>3</v>
       </c>
-      <c r="B7" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="8">
+      <c r="B7" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="96">
         <v>3</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="69"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="99"/>
     </row>
     <row r="8" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="50" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="60"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="57"/>
     </row>
     <row r="9" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="20" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="103"/>
+      <c r="G9" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51" t="s">
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51" t="s">
+      <c r="M9" s="100"/>
+      <c r="N9" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="61"/>
+      <c r="O9" s="105"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="35">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="83">
-        <v>0.7</v>
-      </c>
-      <c r="F10" s="84"/>
-      <c r="G10" s="36">
+      <c r="B10" s="67"/>
+      <c r="C10" s="106">
+        <v>5.9</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="107">
+        <v>80</v>
+      </c>
+      <c r="F10" s="108"/>
+      <c r="G10" s="109">
         <v>1</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="32"/>
+      <c r="H10" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" s="27"/>
+      <c r="N10" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="66"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="66"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="35">
-        <v>5.03</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="83">
-        <v>0.8</v>
-      </c>
-      <c r="F12" s="84"/>
-      <c r="G12" s="36">
+      <c r="B12" s="67"/>
+      <c r="C12" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="107">
+        <v>100</v>
+      </c>
+      <c r="F12" s="108"/>
+      <c r="G12" s="109">
         <v>2</v>
       </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="32"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="66"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="32"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="66"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="83">
-        <v>1</v>
-      </c>
-      <c r="F14" s="84"/>
-      <c r="G14" s="36">
+      <c r="B14" s="67"/>
+      <c r="C14" s="106">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="107">
+        <v>70</v>
+      </c>
+      <c r="F14" s="108"/>
+      <c r="G14" s="109">
         <v>3</v>
       </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="32"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="66"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="32"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="66"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="35">
-        <v>5.05</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="83">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="84"/>
-      <c r="G16" s="36">
+      <c r="B16" s="67"/>
+      <c r="C16" s="106">
+        <v>5.12</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="107">
+        <v>100</v>
+      </c>
+      <c r="F16" s="108"/>
+      <c r="G16" s="109">
         <v>4</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="32"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="66"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="32"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="66"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="35">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="83">
-        <v>1</v>
-      </c>
-      <c r="F18" s="84"/>
-      <c r="G18" s="36">
+      <c r="B18" s="67"/>
+      <c r="C18" s="106">
+        <v>5.13</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="107">
+        <v>70</v>
+      </c>
+      <c r="F18" s="108"/>
+      <c r="G18" s="109">
         <v>5</v>
       </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="52"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="27"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="29"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="35">
-        <v>5.07</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="83">
-        <v>1</v>
-      </c>
-      <c r="F20" s="84"/>
-      <c r="G20" s="36">
+      <c r="B20" s="67"/>
+      <c r="C20" s="106">
+        <v>5.14</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="107">
+        <v>0</v>
+      </c>
+      <c r="F20" s="108"/>
+      <c r="G20" s="109">
         <v>6</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="52"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="27"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="54"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="29"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="36">
+      <c r="B22" s="67"/>
+      <c r="C22" s="106">
+        <v>5.15</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="107">
+        <v>0</v>
+      </c>
+      <c r="F22" s="108"/>
+      <c r="G22" s="109">
         <v>7</v>
       </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="52"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="27"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="54"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="29"/>
     </row>
     <row r="24" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51" t="s">
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="21" t="s">
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="O25" s="12"/>
+      <c r="O25" s="114"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="13">
-        <v>5.09</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="23">
-        <v>0.7</v>
+      <c r="B26" s="64"/>
+      <c r="C26" s="115">
+        <v>5.16</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="14">
+        <v>60</v>
       </c>
       <c r="O26" s="11"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="22">
-        <v>1</v>
-      </c>
-      <c r="O27" s="17"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="117" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="119"/>
+      <c r="F27" s="119"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="119"/>
+      <c r="J27" s="119"/>
+      <c r="K27" s="119"/>
+      <c r="L27" s="119"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="121">
+        <v>100</v>
+      </c>
+      <c r="O27" s="122"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="13">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="23">
-        <v>0.4</v>
+      <c r="B28" s="64"/>
+      <c r="C28" s="115">
+        <v>5.18</v>
+      </c>
+      <c r="D28" s="123" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="124"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="125"/>
+      <c r="N28" s="14">
+        <v>100</v>
       </c>
       <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="15">
-        <v>5.12</v>
-      </c>
-      <c r="D29" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="22">
-        <v>1</v>
-      </c>
-      <c r="O29" s="17"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="126" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="127" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="127"/>
+      <c r="M29" s="127"/>
+      <c r="N29" s="121">
+        <v>70</v>
+      </c>
+      <c r="O29" s="122"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="13">
-        <v>5.13</v>
-      </c>
-      <c r="D30" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="23">
-        <v>1</v>
+      <c r="B30" s="64"/>
+      <c r="C30" s="128" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="123" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="125"/>
+      <c r="N30" s="14">
+        <v>100</v>
       </c>
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="17"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="117" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="127"/>
+      <c r="M31" s="127"/>
+      <c r="N31" s="121"/>
+      <c r="O31" s="122"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="13">
-        <v>5.15</v>
-      </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="115">
+        <v>5.22</v>
+      </c>
+      <c r="D32" s="123"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="124"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="124"/>
+      <c r="M32" s="125"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="34"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="129"/>
+      <c r="O33" s="130"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="27"/>
+      <c r="A34" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="76"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="29"/>
+      <c r="A35" s="131"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="131"/>
+      <c r="L35" s="131"/>
+      <c r="M35" s="131"/>
+      <c r="N35" s="131"/>
+      <c r="O35" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -5822,7 +6949,7 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="H4:O4"/>
   </mergeCells>
-  <phoneticPr fontId="38" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/周报/冯奕程-2018141411234.xlsx
+++ b/周报/冯奕程-2018141411234.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\class\软件项目管理\SotfwareManagement_CovidAid\周报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935B9489-E59B-433C-84EB-74B92DE459BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC72A900-D478-42C6-B2A1-48E690D95729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第08周工作周报" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="第10周工作周报" sheetId="10" r:id="rId3"/>
     <sheet name="第11周工作周报" sheetId="11" r:id="rId4"/>
     <sheet name="第12周工作周报" sheetId="12" r:id="rId5"/>
+    <sheet name="第13周工作周报" sheetId="13" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">第08周工作周报!$A$1:$O$35</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="127">
   <si>
     <t>本周工作总结</t>
   </si>
@@ -601,6 +602,49 @@
   </si>
   <si>
     <t>本周工作总结： 本周主要工作为医患聊天系统实现。进度正常。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">工作周报    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">日期：2022/5/20          </t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法重复上传文件</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>debug</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端联调</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块化部署</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端联调方案设计</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端联调</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端联调+修复可能存在的BUG</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1549,173 +1593,225 @@
     <xf numFmtId="49" fontId="33" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="33" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="24" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1729,22 +1825,82 @@
     <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="27" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1758,118 +1914,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="27" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="33" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="24" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2327,69 +2371,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="40"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="83"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="44" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="46"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="89"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -2398,530 +2442,530 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="48"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="77"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="52"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="79"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="54"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="81"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="55" t="s">
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="57"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="72"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="61"/>
+      <c r="F9" s="75"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58" t="s">
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58" t="s">
+      <c r="M9" s="63"/>
+      <c r="N9" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="59"/>
+      <c r="O9" s="73"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="68">
+      <c r="B10" s="42"/>
+      <c r="C10" s="47">
         <v>4.09</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="70">
+      <c r="E10" s="50">
         <v>29</v>
       </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="37">
+      <c r="F10" s="51"/>
+      <c r="G10" s="48">
         <v>1</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25" t="s">
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25" t="s">
+      <c r="M10" s="43"/>
+      <c r="N10" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="66"/>
+      <c r="O10" s="44"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="66"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="44"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="69" t="s">
+      <c r="B12" s="42"/>
+      <c r="C12" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="56">
         <v>50</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="37">
+      <c r="F12" s="57"/>
+      <c r="G12" s="48">
         <v>2</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25" t="s">
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25" t="s">
+      <c r="M12" s="43"/>
+      <c r="N12" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="O12" s="66"/>
+      <c r="O12" s="44"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="66"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="44"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68">
+      <c r="B14" s="42"/>
+      <c r="C14" s="47">
         <v>4.1100000000000003</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="56">
         <v>100</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="37">
+      <c r="F14" s="57"/>
+      <c r="G14" s="48">
         <v>3</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="66"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="44"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="66"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="44"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68">
+      <c r="B16" s="42"/>
+      <c r="C16" s="47">
         <v>4.12</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="56">
         <v>100</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="37">
+      <c r="F16" s="57"/>
+      <c r="G16" s="48">
         <v>4</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="66"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="44"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="66"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="44"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68">
+      <c r="B18" s="42"/>
+      <c r="C18" s="47">
         <v>4.13</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="92">
         <v>100</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="37">
+      <c r="F18" s="57"/>
+      <c r="G18" s="48">
         <v>5</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="27"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="64"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="29"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="66"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68">
+      <c r="B20" s="42"/>
+      <c r="C20" s="47">
         <v>4.1399999999999997</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="92">
         <v>20</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="37">
+      <c r="F20" s="57"/>
+      <c r="G20" s="48">
         <v>6</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="27"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="64"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="29"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="66"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68">
+      <c r="B22" s="42"/>
+      <c r="C22" s="47">
         <v>4.1500000000000004</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="67">
         <v>30</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="37">
+      <c r="F22" s="64"/>
+      <c r="G22" s="48">
         <v>7</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="27"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="64"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="29"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="66"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58" t="s">
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
       <c r="N25" s="21" t="s">
         <v>24</v>
       </c>
@@ -2929,25 +2973,25 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="64"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="13">
         <v>10.24</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
       <c r="N26" s="14">
         <v>30</v>
       </c>
@@ -2955,25 +2999,25 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="62"/>
+      <c r="B27" s="69"/>
       <c r="C27" s="15">
         <v>10.25</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
       <c r="N27" s="16">
         <v>100</v>
       </c>
@@ -2981,25 +3025,25 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="64"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="13">
         <v>10.26</v>
       </c>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
       <c r="N28" s="14">
         <v>100</v>
       </c>
@@ -3007,25 +3051,25 @@
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="62"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="15">
         <v>10.27</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
       <c r="N29" s="22">
         <v>0.8</v>
       </c>
@@ -3033,25 +3077,25 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="64"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="13">
         <v>10.28</v>
       </c>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
       <c r="N30" s="14">
         <v>100</v>
       </c>
@@ -3059,25 +3103,25 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="62"/>
+      <c r="B31" s="69"/>
       <c r="C31" s="15">
         <v>10.29</v>
       </c>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
       <c r="N31" s="16">
         <v>100</v>
       </c>
@@ -3085,25 +3129,25 @@
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="64"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="65" t="s">
+      <c r="D32" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
       <c r="N32" s="14">
         <v>60</v>
       </c>
@@ -3111,61 +3155,61 @@
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="80"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="46"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="39"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="78"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="41"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3198,6 +3242,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
     <mergeCell ref="A34:O35"/>
     <mergeCell ref="A18:B19"/>
     <mergeCell ref="A20:B21"/>
@@ -3214,84 +3336,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="H12:K13"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="H20:K21"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="H18:K19"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
@@ -3332,69 +3376,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="40"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="83"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="44" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="46"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="89"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -3403,528 +3447,528 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="48"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="54"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="81"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="90"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="94"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="54"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="81"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="55" t="s">
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="57"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="72"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="61"/>
+      <c r="F9" s="75"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58" t="s">
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58" t="s">
+      <c r="M9" s="63"/>
+      <c r="N9" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="59"/>
+      <c r="O9" s="73"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="68">
+      <c r="B10" s="42"/>
+      <c r="C10" s="47">
         <v>4.18</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="95">
         <v>1</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="37">
+      <c r="F10" s="96"/>
+      <c r="G10" s="48">
         <v>1</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25" t="s">
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25" t="s">
+      <c r="M10" s="43"/>
+      <c r="N10" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="O10" s="66"/>
+      <c r="O10" s="44"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="66"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="44"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68">
+      <c r="B12" s="42"/>
+      <c r="C12" s="47">
         <v>4.1900000000000004</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="95">
         <v>1</v>
       </c>
-      <c r="F12" s="86"/>
-      <c r="G12" s="37">
+      <c r="F12" s="96"/>
+      <c r="G12" s="48">
         <v>2</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25" t="s">
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25" t="s">
+      <c r="M12" s="43"/>
+      <c r="N12" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="O12" s="66"/>
+      <c r="O12" s="44"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="66"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="44"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="69" t="s">
+      <c r="B14" s="42"/>
+      <c r="C14" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="85">
+      <c r="E14" s="95">
         <v>1</v>
       </c>
-      <c r="F14" s="86"/>
-      <c r="G14" s="37">
+      <c r="F14" s="96"/>
+      <c r="G14" s="48">
         <v>3</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25" t="s">
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25" t="s">
+      <c r="M14" s="43"/>
+      <c r="N14" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="66"/>
+      <c r="O14" s="44"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="66"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="44"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68">
+      <c r="B16" s="42"/>
+      <c r="C16" s="47">
         <v>4.21</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="85">
+      <c r="E16" s="95">
         <v>0.6</v>
       </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="37">
+      <c r="F16" s="96"/>
+      <c r="G16" s="48">
         <v>4</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="66"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="44"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="66"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="44"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68">
+      <c r="B18" s="42"/>
+      <c r="C18" s="47">
         <v>4.22</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="85">
+      <c r="E18" s="95">
         <v>1</v>
       </c>
-      <c r="F18" s="86"/>
-      <c r="G18" s="37">
+      <c r="F18" s="96"/>
+      <c r="G18" s="48">
         <v>5</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="27"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="64"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="29"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="66"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68">
+      <c r="B20" s="42"/>
+      <c r="C20" s="47">
         <v>4.2300000000000004</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="37">
+      <c r="D20" s="54"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="48">
         <v>6</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="27"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="64"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="29"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="66"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68">
+      <c r="B22" s="42"/>
+      <c r="C22" s="47">
         <v>4.24</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="37">
+      <c r="D22" s="54"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="48">
         <v>7</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="27"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="64"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="29"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="66"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58" t="s">
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
       <c r="N25" s="21" t="s">
         <v>24</v>
       </c>
@@ -3932,25 +3976,25 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="64"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="13">
         <v>4.25</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
       <c r="N26" s="23">
         <v>0.3</v>
       </c>
@@ -3958,25 +4002,25 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="62"/>
+      <c r="B27" s="69"/>
       <c r="C27" s="15">
         <v>4.26</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
       <c r="N27" s="22">
         <v>0.2</v>
       </c>
@@ -3984,25 +4028,25 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="64"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="13">
         <v>4.2699999999999996</v>
       </c>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
       <c r="N28" s="23">
         <v>1</v>
       </c>
@@ -4010,25 +4054,25 @@
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="62"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="15">
         <v>4.28</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
       <c r="N29" s="22">
         <v>1</v>
       </c>
@@ -4036,25 +4080,25 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="64"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="13">
         <v>4.29</v>
       </c>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
       <c r="N30" s="23">
         <v>0.4</v>
       </c>
@@ -4062,105 +4106,105 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="62"/>
+      <c r="B31" s="69"/>
       <c r="C31" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="64"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="13">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="80"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="46"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="39"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="78"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="41"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4190,6 +4234,885 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D40" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+  </mergeCells>
+  <phoneticPr fontId="38" type="noConversion"/>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
+  <pageSetup paperSize="9" scale="95" firstPageNumber="4294963191" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F7E36B-0560-4A09-B53C-F062C5A7754C}">
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="83"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="89"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="81"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="9">
+        <v>2</v>
+      </c>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="94"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="81"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="72"/>
+    </row>
+    <row r="9" spans="1:15" ht="24" x14ac:dyDescent="0.25">
+      <c r="A9" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="75"/>
+      <c r="G9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="73"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="47">
+        <v>4.25</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="95">
+        <v>1</v>
+      </c>
+      <c r="F10" s="96"/>
+      <c r="G10" s="48">
+        <v>1</v>
+      </c>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="44"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="44"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="47">
+        <v>4.26</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="95">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="96"/>
+      <c r="G12" s="48">
+        <v>2</v>
+      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="44"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="44"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="95">
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="96"/>
+      <c r="G14" s="48">
+        <v>3</v>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="44"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="44"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="47">
+        <v>4.28</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="95">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="96"/>
+      <c r="G16" s="48">
+        <v>4</v>
+      </c>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="44"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="44"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="47">
+        <v>4.29</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="95">
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="96"/>
+      <c r="G18" s="48">
+        <v>5</v>
+      </c>
+      <c r="H18" s="43"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="64"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="66"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="48">
+        <v>6</v>
+      </c>
+      <c r="H20" s="43"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="64"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="66"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="48">
+        <v>7</v>
+      </c>
+      <c r="H22" s="43"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="64"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="66"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" ht="24" x14ac:dyDescent="0.25">
+      <c r="A25" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="13">
+        <v>4.25</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="69"/>
+      <c r="C27" s="15">
+        <v>4.26</v>
+      </c>
+      <c r="D27" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="60"/>
+      <c r="C28" s="13">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="23">
+        <v>1</v>
+      </c>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="69"/>
+      <c r="C29" s="15">
+        <v>4.28</v>
+      </c>
+      <c r="D29" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="22">
+        <v>1</v>
+      </c>
+      <c r="O29" s="17"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="60"/>
+      <c r="C30" s="13">
+        <v>4.29</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="23">
+        <v>1</v>
+      </c>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="69"/>
+      <c r="C31" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="17"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="60"/>
+      <c r="C32" s="13">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="46"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="39"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -4289,786 +5212,794 @@
     <mergeCell ref="D32:M32"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
-  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
-  <pageSetup paperSize="9" scale="95" firstPageNumber="4294963191" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F7E36B-0560-4A09-B53C-F062C5A7754C}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EFB397-44C7-43FA-A788-A0B14C1D6B63}">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:O35"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="40"/>
+      <c r="A1" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="83"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
     </row>
     <row r="3" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="44" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="46"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="89"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="48"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
+      <c r="B5" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="54"/>
+      <c r="H5" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="81"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="B6" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="90"/>
+      <c r="H6" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="94"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="54"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="81"/>
     </row>
     <row r="8" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="55" t="s">
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="57"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="72"/>
     </row>
     <row r="9" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="61"/>
+      <c r="F9" s="75"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58" t="s">
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58" t="s">
+      <c r="M9" s="63"/>
+      <c r="N9" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="59"/>
+      <c r="O9" s="73"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="68">
-        <v>4.25</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="85">
+      <c r="B10" s="42"/>
+      <c r="C10" s="47">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="95">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="96"/>
+      <c r="G10" s="48">
         <v>1</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="37">
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="44"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="44"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="47">
+        <v>5.03</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="95">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="96"/>
+      <c r="G12" s="48">
+        <v>2</v>
+      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="44"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="44"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="95">
         <v>1</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="66"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="66"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68">
-        <v>4.26</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="85">
-        <v>0.2</v>
-      </c>
-      <c r="F12" s="86"/>
-      <c r="G12" s="37">
-        <v>2</v>
-      </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="66"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="66"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="85">
-        <v>0.3</v>
-      </c>
-      <c r="F14" s="86"/>
-      <c r="G14" s="37">
+      <c r="F14" s="96"/>
+      <c r="G14" s="48">
         <v>3</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="66"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="44"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="66"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="44"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68">
-        <v>4.28</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="85">
+      <c r="B16" s="42"/>
+      <c r="C16" s="47">
+        <v>5.05</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="95">
         <v>0.5</v>
       </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="37">
+      <c r="F16" s="96"/>
+      <c r="G16" s="48">
         <v>4</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="66"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="44"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="66"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="44"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68">
-        <v>4.29</v>
-      </c>
-      <c r="D18" s="30" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="47">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="D18" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="85">
-        <v>0.3</v>
-      </c>
-      <c r="F18" s="86"/>
-      <c r="G18" s="37">
+      <c r="E18" s="95">
+        <v>1</v>
+      </c>
+      <c r="F18" s="96"/>
+      <c r="G18" s="48">
         <v>5</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="27"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="64"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="29"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="66"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="37">
+      <c r="B20" s="42"/>
+      <c r="C20" s="47">
+        <v>5.07</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="95">
+        <v>1</v>
+      </c>
+      <c r="F20" s="96"/>
+      <c r="G20" s="48">
         <v>6</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="27"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="64"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="29"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="66"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="37">
+      <c r="B22" s="42"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="48">
         <v>7</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="27"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="64"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="29"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="66"/>
     </row>
     <row r="24" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58" t="s">
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
       <c r="N25" s="21" t="s">
         <v>24</v>
       </c>
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="64"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="13">
-        <v>4.25</v>
-      </c>
-      <c r="D26" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
+        <v>5.09</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
       <c r="N26" s="23">
         <v>0.7</v>
       </c>
       <c r="O26" s="11"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="15">
-        <v>4.26</v>
-      </c>
-      <c r="D27" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
       <c r="N27" s="22">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O27" s="17"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="64"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="13">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="D28" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
       <c r="N28" s="23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="62"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="15">
-        <v>4.28</v>
-      </c>
-      <c r="D29" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
+        <v>5.12</v>
+      </c>
+      <c r="D29" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
       <c r="N29" s="22">
         <v>1</v>
       </c>
       <c r="O29" s="17"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="64"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="13">
-        <v>4.29</v>
-      </c>
-      <c r="D30" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
+        <v>5.13</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
       <c r="N30" s="23">
         <v>1</v>
       </c>
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="62"/>
+      <c r="B31" s="69"/>
       <c r="C31" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
+        <v>98</v>
+      </c>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="64"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="13">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
+        <v>5.15</v>
+      </c>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="80"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="46"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="39"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="78"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -5172,790 +6103,798 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EFB397-44C7-43FA-A788-A0B14C1D6B63}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB036B02-BC27-485C-94FE-2282402EC7D9}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A1:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="40"/>
+      <c r="A1" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="83"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
+      <c r="A2" s="84" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="129"/>
     </row>
     <row r="3" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="44" t="s">
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="46"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="132"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="19" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="48"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="26">
         <v>1</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="8">
+      <c r="B5" s="126" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="26">
         <v>1</v>
       </c>
-      <c r="H5" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="54"/>
+      <c r="H5" s="127" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="B6" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="89" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="90"/>
+      <c r="H6" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="94"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="26">
         <v>3</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="8">
+      <c r="B7" s="126" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="26">
         <v>3</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="54"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="128"/>
     </row>
     <row r="8" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="55" t="s">
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="57"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="72"/>
     </row>
     <row r="9" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="20" t="s">
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="124"/>
+      <c r="G9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58" t="s">
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58" t="s">
+      <c r="M9" s="115"/>
+      <c r="N9" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="59"/>
+      <c r="O9" s="125"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="68">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="85">
-        <v>0.7</v>
-      </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="37">
+      <c r="B10" s="42"/>
+      <c r="C10" s="116">
+        <v>5.9</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="117">
+        <v>80</v>
+      </c>
+      <c r="F10" s="118"/>
+      <c r="G10" s="121">
         <v>1</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="66"/>
+      <c r="H10" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" s="64"/>
+      <c r="N10" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="44"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="66"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="44"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68">
-        <v>5.03</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="85">
-        <v>0.8</v>
-      </c>
-      <c r="F12" s="86"/>
-      <c r="G12" s="37">
+      <c r="B12" s="42"/>
+      <c r="C12" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="117">
+        <v>100</v>
+      </c>
+      <c r="F12" s="118"/>
+      <c r="G12" s="121">
         <v>2</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="66"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="44"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="66"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="44"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="85">
-        <v>1</v>
-      </c>
-      <c r="F14" s="86"/>
-      <c r="G14" s="37">
+      <c r="B14" s="42"/>
+      <c r="C14" s="116">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="117">
+        <v>70</v>
+      </c>
+      <c r="F14" s="118"/>
+      <c r="G14" s="121">
         <v>3</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="66"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="44"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="66"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="44"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68">
-        <v>5.05</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="85">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="37">
+      <c r="B16" s="42"/>
+      <c r="C16" s="116">
+        <v>5.12</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="117">
+        <v>100</v>
+      </c>
+      <c r="F16" s="118"/>
+      <c r="G16" s="121">
         <v>4</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="66"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="44"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="66"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="44"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="85">
-        <v>1</v>
-      </c>
-      <c r="F18" s="86"/>
-      <c r="G18" s="37">
+      <c r="B18" s="42"/>
+      <c r="C18" s="116">
+        <v>5.13</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="117">
+        <v>70</v>
+      </c>
+      <c r="F18" s="118"/>
+      <c r="G18" s="121">
         <v>5</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="27"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="64"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="29"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="66"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68">
-        <v>5.07</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="85">
-        <v>1</v>
-      </c>
-      <c r="F20" s="86"/>
-      <c r="G20" s="37">
+      <c r="B20" s="42"/>
+      <c r="C20" s="116">
+        <v>5.14</v>
+      </c>
+      <c r="D20" s="54"/>
+      <c r="E20" s="117">
+        <v>0</v>
+      </c>
+      <c r="F20" s="118"/>
+      <c r="G20" s="121">
         <v>6</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="27"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="64"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="29"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="66"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="37">
+      <c r="B22" s="42"/>
+      <c r="C22" s="116">
+        <v>5.15</v>
+      </c>
+      <c r="D22" s="54"/>
+      <c r="E22" s="117">
+        <v>0</v>
+      </c>
+      <c r="F22" s="118"/>
+      <c r="G22" s="121">
         <v>7</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="27"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="64"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="29"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="66"/>
     </row>
     <row r="24" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58" t="s">
+      <c r="B25" s="115"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="21" t="s">
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="O25" s="12"/>
+      <c r="O25" s="30"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="13">
-        <v>5.09</v>
-      </c>
-      <c r="D26" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="23">
-        <v>0.7</v>
+      <c r="B26" s="60"/>
+      <c r="C26" s="31">
+        <v>5.16</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="14">
+        <v>60</v>
       </c>
       <c r="O26" s="11"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="22">
-        <v>1</v>
-      </c>
-      <c r="O27" s="17"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="114"/>
+      <c r="N27" s="33">
+        <v>100</v>
+      </c>
+      <c r="O27" s="34"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="13">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="D28" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="23">
-        <v>0.4</v>
+      <c r="B28" s="60"/>
+      <c r="C28" s="31">
+        <v>5.18</v>
+      </c>
+      <c r="D28" s="107" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="109"/>
+      <c r="N28" s="14">
+        <v>100</v>
       </c>
       <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="15">
-        <v>5.12</v>
-      </c>
-      <c r="D29" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="22">
-        <v>1</v>
-      </c>
-      <c r="O29" s="17"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="111" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="33">
+        <v>70</v>
+      </c>
+      <c r="O29" s="34"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="13">
-        <v>5.13</v>
-      </c>
-      <c r="D30" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="23">
-        <v>1</v>
+      <c r="B30" s="60"/>
+      <c r="C30" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="108"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="14">
+        <v>100</v>
       </c>
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="17"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="34"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="13">
-        <v>5.15</v>
-      </c>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="31">
+        <v>5.22</v>
+      </c>
+      <c r="D32" s="107"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="108"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="109"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="80"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="104"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76"/>
+      <c r="A34" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="39"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="78"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -6054,803 +6993,799 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="D32:M32"/>
   </mergeCells>
-  <phoneticPr fontId="38" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB036B02-BC27-485C-94FE-2282402EC7D9}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E945BD47-993D-427E-8D02-DDD64D63E8CF}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:M30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="40"/>
+      <c r="A1" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="83"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="91"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="129"/>
     </row>
     <row r="3" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="94"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="132"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="95" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="48"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="96">
+      <c r="A5" s="26">
         <v>1</v>
       </c>
-      <c r="B5" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="96">
+      <c r="B5" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="26">
         <v>1</v>
       </c>
-      <c r="H5" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="99"/>
+      <c r="H5" s="127" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="B6" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="89" t="s">
-        <v>110</v>
-      </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="90"/>
+      <c r="H6" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="94"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="96">
+      <c r="A7" s="26">
         <v>3</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="96">
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="26">
         <v>3</v>
       </c>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="99"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="128"/>
     </row>
     <row r="8" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="55" t="s">
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="57"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="72"/>
     </row>
     <row r="9" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="101" t="s">
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="103"/>
-      <c r="G9" s="104" t="s">
+      <c r="F9" s="124"/>
+      <c r="G9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="100" t="s">
+      <c r="H9" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100" t="s">
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100" t="s">
+      <c r="M9" s="115"/>
+      <c r="N9" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="105"/>
+      <c r="O9" s="125"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="106">
-        <v>5.9</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="107">
+      <c r="B10" s="42"/>
+      <c r="C10" s="116">
+        <v>5.16</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="117">
         <v>80</v>
       </c>
-      <c r="F10" s="108"/>
-      <c r="G10" s="109">
+      <c r="F10" s="118"/>
+      <c r="G10" s="121">
         <v>1</v>
       </c>
-      <c r="H10" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="M10" s="27"/>
-      <c r="N10" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="66"/>
+      <c r="H10" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" s="64"/>
+      <c r="N10" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" s="44"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="66"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="44"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="69" t="s">
+      <c r="B12" s="42"/>
+      <c r="C12" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="117">
         <v>100</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="107">
+      <c r="F12" s="118"/>
+      <c r="G12" s="121">
+        <v>2</v>
+      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="44"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="44"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="116">
+        <v>5.18</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="117">
+        <v>70</v>
+      </c>
+      <c r="F14" s="118"/>
+      <c r="G14" s="121">
+        <v>3</v>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="44"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="44"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="116">
+        <v>5.19</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="117">
         <v>100</v>
       </c>
-      <c r="F12" s="108"/>
-      <c r="G12" s="109">
-        <v>2</v>
-      </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="66"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="66"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="106">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="107">
-        <v>70</v>
-      </c>
-      <c r="F14" s="108"/>
-      <c r="G14" s="109">
-        <v>3</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="66"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="66"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="106">
-        <v>5.12</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="107">
+      <c r="F16" s="118"/>
+      <c r="G16" s="121">
+        <v>4</v>
+      </c>
+      <c r="H16" s="43"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="44"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="44"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="117">
         <v>100</v>
       </c>
-      <c r="F16" s="108"/>
-      <c r="G16" s="109">
-        <v>4</v>
-      </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="66"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="66"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="106">
-        <v>5.13</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="107">
-        <v>70</v>
-      </c>
-      <c r="F18" s="108"/>
-      <c r="G18" s="109">
+      <c r="F18" s="118"/>
+      <c r="G18" s="121">
         <v>5</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="27"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="64"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="29"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="66"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="106">
-        <v>5.14</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="107">
+      <c r="B20" s="42"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="117">
         <v>0</v>
       </c>
-      <c r="F20" s="108"/>
-      <c r="G20" s="109">
+      <c r="F20" s="118"/>
+      <c r="G20" s="121">
         <v>6</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="27"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="64"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="29"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="66"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="106">
-        <v>5.15</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="107">
+      <c r="B22" s="42"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="117">
         <v>0</v>
       </c>
-      <c r="F22" s="108"/>
-      <c r="G22" s="109">
+      <c r="F22" s="118"/>
+      <c r="G22" s="121">
         <v>7</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="27"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="64"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="29"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="66"/>
     </row>
     <row r="24" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="100"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100" t="s">
+      <c r="B25" s="115"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="113" t="s">
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="O25" s="114"/>
+      <c r="O25" s="30"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="115">
+      <c r="B26" s="60"/>
+      <c r="C26" s="31">
         <v>5.16</v>
       </c>
-      <c r="D26" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
+      <c r="D26" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
       <c r="N26" s="14">
         <v>60</v>
       </c>
       <c r="O26" s="11"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="116" t="s">
+      <c r="A27" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="116"/>
-      <c r="C27" s="117" t="s">
+      <c r="B27" s="110"/>
+      <c r="C27" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="119"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="119"/>
-      <c r="M27" s="120"/>
-      <c r="N27" s="121">
+      <c r="D27" s="112" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="114"/>
+      <c r="N27" s="33">
         <v>100</v>
       </c>
-      <c r="O27" s="122"/>
+      <c r="O27" s="34"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="115">
+      <c r="B28" s="60"/>
+      <c r="C28" s="31">
         <v>5.18</v>
       </c>
-      <c r="D28" s="123" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="124"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="124"/>
-      <c r="I28" s="124"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
-      <c r="M28" s="125"/>
+      <c r="D28" s="107" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="109"/>
       <c r="N28" s="14">
         <v>100</v>
       </c>
       <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="116" t="s">
+      <c r="A29" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="116"/>
-      <c r="C29" s="126" t="s">
+      <c r="B29" s="110"/>
+      <c r="C29" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="127" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="127"/>
-      <c r="L29" s="127"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="121">
+      <c r="D29" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="33">
         <v>70</v>
       </c>
-      <c r="O29" s="122"/>
+      <c r="O29" s="34"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="128" t="s">
+      <c r="B30" s="60"/>
+      <c r="C30" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="123" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="124"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="124"/>
-      <c r="M30" s="125"/>
+      <c r="D30" s="107" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="108"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="109"/>
       <c r="N30" s="14">
         <v>100</v>
       </c>
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="116" t="s">
+      <c r="A31" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="116"/>
-      <c r="C31" s="117" t="s">
+      <c r="B31" s="110"/>
+      <c r="C31" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="127"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="127"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="122"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="34"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="115">
+      <c r="B32" s="60"/>
+      <c r="C32" s="31">
         <v>5.22</v>
       </c>
-      <c r="D32" s="123"/>
-      <c r="E32" s="124"/>
-      <c r="F32" s="124"/>
-      <c r="G32" s="124"/>
-      <c r="H32" s="124"/>
-      <c r="I32" s="124"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="124"/>
-      <c r="L32" s="124"/>
-      <c r="M32" s="125"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="108"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="109"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="129" t="s">
+      <c r="A33" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="129"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="129"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="129"/>
-      <c r="J33" s="129"/>
-      <c r="K33" s="129"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="129"/>
-      <c r="N33" s="129"/>
-      <c r="O33" s="130"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="104"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="76"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="39"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="131"/>
-      <c r="B35" s="131"/>
-      <c r="C35" s="131"/>
-      <c r="D35" s="131"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="131"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="131"/>
-      <c r="K35" s="131"/>
-      <c r="L35" s="131"/>
-      <c r="M35" s="131"/>
-      <c r="N35" s="131"/>
-      <c r="O35" s="132"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -6949,7 +7884,7 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="H4:O4"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/周报/冯奕程-2018141411234.xlsx
+++ b/周报/冯奕程-2018141411234.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\class\软件项目管理\SotfwareManagement_CovidAid\周报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC72A900-D478-42C6-B2A1-48E690D95729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138EBC2A-CA5C-479E-834E-3394AE0D4035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第08周工作周报" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="第11周工作周报" sheetId="11" r:id="rId4"/>
     <sheet name="第12周工作周报" sheetId="12" r:id="rId5"/>
     <sheet name="第13周工作周报" sheetId="13" r:id="rId6"/>
+    <sheet name="第14周工作周报" sheetId="14" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">第08周工作周报!$A$1:$O$35</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="142">
   <si>
     <t>本周工作总结</t>
   </si>
@@ -645,6 +646,77 @@
   </si>
   <si>
     <t>前后端联调+修复可能存在的BUG</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署方案设计</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上测试模块功能</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">工作周报    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">日期：2022/5/27          </t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.24</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.27</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块化部署方案学习</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上联调测试</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在跨域问题</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习相关内容</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周工作总结： 本周主要工作为医患聊天系统模块部署。进度正常。</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统部署架构方案设计</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>串联各个模块</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式部署方案整合</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>串联各个功能模块</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决可能存在的问题</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1531,7 +1603,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1627,6 +1699,156 @@
     <xf numFmtId="49" fontId="33" fillId="24" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1642,157 +1864,34 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1801,28 +1900,82 @@
     <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="27" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1836,84 +1989,6 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="27" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2371,69 +2446,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="83"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="56"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="87" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="89"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="59"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -2442,530 +2517,530 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="91"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="61"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="76" t="s">
+      <c r="H5" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="77"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="63"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="78" t="s">
+      <c r="H6" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="79"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="65"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="81"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="67"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="62" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="72"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="70"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="75"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63" t="s">
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63" t="s">
+      <c r="M9" s="71"/>
+      <c r="N9" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="73"/>
+      <c r="O9" s="72"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="47">
+      <c r="B10" s="80"/>
+      <c r="C10" s="81">
         <v>4.09</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="83">
         <v>29</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="48">
+      <c r="F10" s="84"/>
+      <c r="G10" s="50">
         <v>1</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="H10" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43" t="s">
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43" t="s">
+      <c r="M10" s="38"/>
+      <c r="N10" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="44"/>
+      <c r="O10" s="79"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="44"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="79"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="49" t="s">
+      <c r="B12" s="80"/>
+      <c r="C12" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="45">
         <v>50</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="48">
+      <c r="F12" s="46"/>
+      <c r="G12" s="50">
         <v>2</v>
       </c>
-      <c r="H12" s="43" t="s">
+      <c r="H12" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43" t="s">
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43" t="s">
+      <c r="M12" s="38"/>
+      <c r="N12" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="O12" s="44"/>
+      <c r="O12" s="79"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="44"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="79"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="47">
+      <c r="B14" s="80"/>
+      <c r="C14" s="81">
         <v>4.1100000000000003</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="45">
         <v>100</v>
       </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="48">
+      <c r="F14" s="46"/>
+      <c r="G14" s="50">
         <v>3</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="44"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="79"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="44"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="79"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="47">
+      <c r="B16" s="80"/>
+      <c r="C16" s="81">
         <v>4.12</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="45">
         <v>100</v>
       </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="48">
+      <c r="F16" s="46"/>
+      <c r="G16" s="50">
         <v>4</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="44"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="79"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="44"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="79"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="47">
+      <c r="B18" s="80"/>
+      <c r="C18" s="81">
         <v>4.13</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="92">
+      <c r="E18" s="49">
         <v>100</v>
       </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="48">
+      <c r="F18" s="46"/>
+      <c r="G18" s="50">
         <v>5</v>
       </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="64"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="40"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="66"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="42"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="47">
+      <c r="B20" s="80"/>
+      <c r="C20" s="81">
         <v>4.1399999999999997</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="92">
+      <c r="E20" s="49">
         <v>20</v>
       </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="48">
+      <c r="F20" s="46"/>
+      <c r="G20" s="50">
         <v>6</v>
       </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="64"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="40"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="66"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="42"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="47">
+      <c r="B22" s="80"/>
+      <c r="C22" s="81">
         <v>4.1500000000000004</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="39">
         <v>30</v>
       </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="48">
+      <c r="F22" s="40"/>
+      <c r="G22" s="50">
         <v>7</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="64"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="40"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="66"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="42"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63" t="s">
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
       <c r="N25" s="21" t="s">
         <v>24</v>
       </c>
@@ -2973,25 +3048,25 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="60"/>
+      <c r="B26" s="77"/>
       <c r="C26" s="13">
         <v>10.24</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
       <c r="N26" s="14">
         <v>30</v>
       </c>
@@ -2999,25 +3074,25 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="69"/>
+      <c r="B27" s="75"/>
       <c r="C27" s="15">
         <v>10.25</v>
       </c>
-      <c r="D27" s="70" t="s">
+      <c r="D27" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
       <c r="N27" s="16">
         <v>100</v>
       </c>
@@ -3025,25 +3100,25 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="60"/>
+      <c r="B28" s="77"/>
       <c r="C28" s="13">
         <v>10.26</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
       <c r="N28" s="14">
         <v>100</v>
       </c>
@@ -3051,25 +3126,25 @@
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="69"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="15">
         <v>10.27</v>
       </c>
-      <c r="D29" s="70" t="s">
+      <c r="D29" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
       <c r="N29" s="22">
         <v>0.8</v>
       </c>
@@ -3077,25 +3152,25 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="60"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="13">
         <v>10.28</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="D30" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
       <c r="N30" s="14">
         <v>100</v>
       </c>
@@ -3103,25 +3178,25 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="69"/>
+      <c r="B31" s="75"/>
       <c r="C31" s="15">
         <v>10.29</v>
       </c>
-      <c r="D31" s="70" t="s">
+      <c r="D31" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
       <c r="N31" s="16">
         <v>100</v>
       </c>
@@ -3129,25 +3204,25 @@
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="60"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="61" t="s">
+      <c r="D32" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
       <c r="N32" s="14">
         <v>60</v>
       </c>
@@ -3155,61 +3230,61 @@
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="46"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="93"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="39"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="89"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="41"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="90"/>
+      <c r="N35" s="90"/>
+      <c r="O35" s="91"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3242,54 +3317,36 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="H18:K19"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="H14:K15"/>
     <mergeCell ref="N10:O11"/>
     <mergeCell ref="L12:M13"/>
     <mergeCell ref="A30:B30"/>
@@ -3306,36 +3363,54 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="L10:M11"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="H12:K13"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="A34:O35"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="H16:K17"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="A33:O33"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
@@ -3376,69 +3451,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="83"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="56"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="87" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="89"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="59"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -3447,528 +3522,528 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="91"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="61"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="80" t="s">
+      <c r="H5" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="81"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="67"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="93" t="s">
+      <c r="H6" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="94"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="103"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="81"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="67"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="62" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="72"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="70"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="75"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63" t="s">
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63" t="s">
+      <c r="M9" s="71"/>
+      <c r="N9" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="73"/>
+      <c r="O9" s="72"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="47">
+      <c r="B10" s="80"/>
+      <c r="C10" s="81">
         <v>4.18</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="95">
+      <c r="E10" s="98">
         <v>1</v>
       </c>
-      <c r="F10" s="96"/>
-      <c r="G10" s="48">
+      <c r="F10" s="99"/>
+      <c r="G10" s="50">
         <v>1</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="H10" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43" t="s">
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43" t="s">
+      <c r="M10" s="38"/>
+      <c r="N10" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="O10" s="44"/>
+      <c r="O10" s="79"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="44"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="79"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="47">
+      <c r="B12" s="80"/>
+      <c r="C12" s="81">
         <v>4.1900000000000004</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="95">
+      <c r="E12" s="98">
         <v>1</v>
       </c>
-      <c r="F12" s="96"/>
-      <c r="G12" s="48">
+      <c r="F12" s="99"/>
+      <c r="G12" s="50">
         <v>2</v>
       </c>
-      <c r="H12" s="43" t="s">
+      <c r="H12" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43" t="s">
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43" t="s">
+      <c r="M12" s="38"/>
+      <c r="N12" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="O12" s="44"/>
+      <c r="O12" s="79"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="44"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="79"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="49" t="s">
+      <c r="B14" s="80"/>
+      <c r="C14" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="95">
+      <c r="E14" s="98">
         <v>1</v>
       </c>
-      <c r="F14" s="96"/>
-      <c r="G14" s="48">
+      <c r="F14" s="99"/>
+      <c r="G14" s="50">
         <v>3</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43" t="s">
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43" t="s">
+      <c r="M14" s="38"/>
+      <c r="N14" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="44"/>
+      <c r="O14" s="79"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="44"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="79"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="47">
+      <c r="B16" s="80"/>
+      <c r="C16" s="81">
         <v>4.21</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="95">
+      <c r="E16" s="98">
         <v>0.6</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="48">
+      <c r="F16" s="99"/>
+      <c r="G16" s="50">
         <v>4</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="44"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="79"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="44"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="79"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="47">
+      <c r="B18" s="80"/>
+      <c r="C18" s="81">
         <v>4.22</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="95">
+      <c r="E18" s="98">
         <v>1</v>
       </c>
-      <c r="F18" s="96"/>
-      <c r="G18" s="48">
+      <c r="F18" s="99"/>
+      <c r="G18" s="50">
         <v>5</v>
       </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="64"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="40"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="66"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="42"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="47">
+      <c r="B20" s="80"/>
+      <c r="C20" s="81">
         <v>4.2300000000000004</v>
       </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="48">
+      <c r="D20" s="43"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="50">
         <v>6</v>
       </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="64"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="40"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="66"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="42"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="47">
+      <c r="B22" s="80"/>
+      <c r="C22" s="81">
         <v>4.24</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="48">
+      <c r="D22" s="43"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="50">
         <v>7</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="64"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="40"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="66"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="42"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63" t="s">
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
       <c r="N25" s="21" t="s">
         <v>24</v>
       </c>
@@ -3976,25 +4051,25 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="60"/>
+      <c r="B26" s="77"/>
       <c r="C26" s="13">
         <v>4.25</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
       <c r="N26" s="23">
         <v>0.3</v>
       </c>
@@ -4002,25 +4077,25 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="69"/>
+      <c r="B27" s="75"/>
       <c r="C27" s="15">
         <v>4.26</v>
       </c>
-      <c r="D27" s="70" t="s">
+      <c r="D27" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
       <c r="N27" s="22">
         <v>0.2</v>
       </c>
@@ -4028,25 +4103,25 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="60"/>
+      <c r="B28" s="77"/>
       <c r="C28" s="13">
         <v>4.2699999999999996</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
       <c r="N28" s="23">
         <v>1</v>
       </c>
@@ -4054,25 +4129,25 @@
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="69"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="15">
         <v>4.28</v>
       </c>
-      <c r="D29" s="70" t="s">
+      <c r="D29" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
       <c r="N29" s="22">
         <v>1</v>
       </c>
@@ -4080,25 +4155,25 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="60"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="13">
         <v>4.29</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="D30" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
       <c r="N30" s="23">
         <v>0.4</v>
       </c>
@@ -4106,105 +4181,105 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="69"/>
+      <c r="B31" s="75"/>
       <c r="C31" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="60"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="13">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="46"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="93"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="39"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="89"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="41"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="90"/>
+      <c r="N35" s="90"/>
+      <c r="O35" s="91"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4234,6 +4309,885 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D40" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+  </mergeCells>
+  <phoneticPr fontId="38" type="noConversion"/>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
+  <pageSetup paperSize="9" scale="95" firstPageNumber="4294963191" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F7E36B-0560-4A09-B53C-F062C5A7754C}">
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="56"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="59"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="61"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="67"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="9">
+        <v>2</v>
+      </c>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="103"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="8">
+        <v>3</v>
+      </c>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="67"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="70"/>
+    </row>
+    <row r="9" spans="1:15" ht="24" x14ac:dyDescent="0.25">
+      <c r="A9" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="74"/>
+      <c r="G9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="72"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="80"/>
+      <c r="C10" s="81">
+        <v>4.25</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="98">
+        <v>1</v>
+      </c>
+      <c r="F10" s="99"/>
+      <c r="G10" s="50">
+        <v>1</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="79"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="79"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81">
+        <v>4.26</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="98">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="99"/>
+      <c r="G12" s="50">
+        <v>2</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="79"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="79"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="80"/>
+      <c r="C14" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="98">
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="99"/>
+      <c r="G14" s="50">
+        <v>3</v>
+      </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="79"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="79"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81">
+        <v>4.28</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="98">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="99"/>
+      <c r="G16" s="50">
+        <v>4</v>
+      </c>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="79"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="79"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="80"/>
+      <c r="C18" s="81">
+        <v>4.29</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="98">
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="99"/>
+      <c r="G18" s="50">
+        <v>5</v>
+      </c>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="40"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="42"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="50">
+        <v>6</v>
+      </c>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="40"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="42"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="50">
+        <v>7</v>
+      </c>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="40"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="42"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" ht="24" x14ac:dyDescent="0.25">
+      <c r="A25" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="77"/>
+      <c r="C26" s="13">
+        <v>4.25</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="75"/>
+      <c r="C27" s="15">
+        <v>4.26</v>
+      </c>
+      <c r="D27" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="77"/>
+      <c r="C28" s="13">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="D28" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="23">
+        <v>1</v>
+      </c>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="75"/>
+      <c r="C29" s="15">
+        <v>4.28</v>
+      </c>
+      <c r="D29" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="22">
+        <v>1</v>
+      </c>
+      <c r="O29" s="17"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="77"/>
+      <c r="C30" s="13">
+        <v>4.29</v>
+      </c>
+      <c r="D30" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="23">
+        <v>1</v>
+      </c>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="75"/>
+      <c r="C31" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="17"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="77"/>
+      <c r="C32" s="13">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="93"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="89"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="90"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="90"/>
+      <c r="N35" s="90"/>
+      <c r="O35" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -4333,786 +5287,794 @@
     <mergeCell ref="H4:O4"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
-  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
-  <pageSetup paperSize="9" scale="95" firstPageNumber="4294963191" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F7E36B-0560-4A09-B53C-F062C5A7754C}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EFB397-44C7-43FA-A788-A0B14C1D6B63}">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:O35"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="83"/>
+      <c r="A1" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="56"/>
     </row>
     <row r="3" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="87" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="89"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="59"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="91"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="61"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="B5" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="81"/>
+      <c r="H5" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="67"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="94"/>
+      <c r="H6" s="102" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="103"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="B7" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="81"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="67"/>
     </row>
     <row r="8" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="62" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="72"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="70"/>
     </row>
     <row r="9" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="75"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63" t="s">
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63" t="s">
+      <c r="M9" s="71"/>
+      <c r="N9" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="73"/>
+      <c r="O9" s="72"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="47">
-        <v>4.25</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="95">
+      <c r="B10" s="80"/>
+      <c r="C10" s="81">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="98">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="99"/>
+      <c r="G10" s="50">
         <v>1</v>
       </c>
-      <c r="F10" s="96"/>
-      <c r="G10" s="48">
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="79"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="79"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81">
+        <v>5.03</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="98">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="99"/>
+      <c r="G12" s="50">
+        <v>2</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="79"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="79"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="80"/>
+      <c r="C14" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="98">
         <v>1</v>
       </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="44"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="44"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="47">
-        <v>4.26</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="95">
-        <v>0.2</v>
-      </c>
-      <c r="F12" s="96"/>
-      <c r="G12" s="48">
-        <v>2</v>
-      </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="44"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="44"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="95">
-        <v>0.3</v>
-      </c>
-      <c r="F14" s="96"/>
-      <c r="G14" s="48">
+      <c r="F14" s="99"/>
+      <c r="G14" s="50">
         <v>3</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="44"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="79"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="44"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="79"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="47">
-        <v>4.28</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="95">
+      <c r="B16" s="80"/>
+      <c r="C16" s="81">
+        <v>5.05</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="98">
         <v>0.5</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="48">
+      <c r="F16" s="99"/>
+      <c r="G16" s="50">
         <v>4</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="44"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="79"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="44"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="79"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="47">
-        <v>4.29</v>
-      </c>
-      <c r="D18" s="54" t="s">
+      <c r="B18" s="80"/>
+      <c r="C18" s="81">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="D18" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="95">
-        <v>0.3</v>
-      </c>
-      <c r="F18" s="96"/>
-      <c r="G18" s="48">
+      <c r="E18" s="98">
+        <v>1</v>
+      </c>
+      <c r="F18" s="99"/>
+      <c r="G18" s="50">
         <v>5</v>
       </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="64"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="40"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="66"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="42"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="48">
+      <c r="B20" s="80"/>
+      <c r="C20" s="81">
+        <v>5.07</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="98">
+        <v>1</v>
+      </c>
+      <c r="F20" s="99"/>
+      <c r="G20" s="50">
         <v>6</v>
       </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="64"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="40"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="66"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="42"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="48">
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="50">
         <v>7</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="64"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="40"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="66"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="42"/>
     </row>
     <row r="24" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63" t="s">
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
       <c r="N25" s="21" t="s">
         <v>24</v>
       </c>
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="60"/>
+      <c r="B26" s="77"/>
       <c r="C26" s="13">
-        <v>4.25</v>
-      </c>
-      <c r="D26" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
+        <v>5.09</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
       <c r="N26" s="23">
         <v>0.7</v>
       </c>
       <c r="O26" s="11"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="15">
-        <v>4.26</v>
-      </c>
-      <c r="D27" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
       <c r="N27" s="22">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O27" s="17"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="60"/>
+      <c r="B28" s="77"/>
       <c r="C28" s="13">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="D28" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D28" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
       <c r="N28" s="23">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="69"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="15">
-        <v>4.28</v>
-      </c>
-      <c r="D29" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
+        <v>5.12</v>
+      </c>
+      <c r="D29" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
       <c r="N29" s="22">
         <v>1</v>
       </c>
       <c r="O29" s="17"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="60"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="13">
-        <v>4.29</v>
-      </c>
-      <c r="D30" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
+        <v>5.13</v>
+      </c>
+      <c r="D30" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
       <c r="N30" s="23">
         <v>1</v>
       </c>
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="69"/>
+      <c r="B31" s="75"/>
       <c r="C31" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
+        <v>98</v>
+      </c>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="60"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="13">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
+        <v>5.15</v>
+      </c>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="46"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="93"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="39"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="89"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="41"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="90"/>
+      <c r="N35" s="90"/>
+      <c r="O35" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -5216,790 +6178,798 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EFB397-44C7-43FA-A788-A0B14C1D6B63}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB036B02-BC27-485C-94FE-2282402EC7D9}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A1:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="83"/>
+      <c r="A1" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
+      <c r="A2" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="104"/>
     </row>
     <row r="3" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="87" t="s">
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="89"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="107"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="19" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="91"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="61"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="26">
         <v>1</v>
       </c>
-      <c r="B5" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="8">
+      <c r="B5" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="26">
         <v>1</v>
       </c>
-      <c r="H5" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="81"/>
+      <c r="H5" s="109" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="110"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="78" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="94"/>
+      <c r="H6" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="103"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="26">
         <v>3</v>
       </c>
-      <c r="B7" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="8">
+      <c r="B7" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="26">
         <v>3</v>
       </c>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="81"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="110"/>
     </row>
     <row r="8" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="62" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="72"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="70"/>
     </row>
     <row r="9" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="20" t="s">
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="113"/>
+      <c r="G9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63" t="s">
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63" t="s">
+      <c r="M9" s="111"/>
+      <c r="N9" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="73"/>
+      <c r="O9" s="114"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="47">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="95">
-        <v>0.7</v>
-      </c>
-      <c r="F10" s="96"/>
-      <c r="G10" s="48">
+      <c r="B10" s="80"/>
+      <c r="C10" s="121">
+        <v>5.9</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="115">
+        <v>80</v>
+      </c>
+      <c r="F10" s="116"/>
+      <c r="G10" s="119">
         <v>1</v>
       </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="44"/>
+      <c r="H10" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" s="40"/>
+      <c r="N10" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="79"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="44"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="79"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="47">
-        <v>5.03</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="95">
-        <v>0.8</v>
-      </c>
-      <c r="F12" s="96"/>
-      <c r="G12" s="48">
+      <c r="B12" s="80"/>
+      <c r="C12" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="115">
+        <v>100</v>
+      </c>
+      <c r="F12" s="116"/>
+      <c r="G12" s="119">
         <v>2</v>
       </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="44"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="79"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="44"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="79"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="95">
-        <v>1</v>
-      </c>
-      <c r="F14" s="96"/>
-      <c r="G14" s="48">
+      <c r="B14" s="80"/>
+      <c r="C14" s="121">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="115">
+        <v>70</v>
+      </c>
+      <c r="F14" s="116"/>
+      <c r="G14" s="119">
         <v>3</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="44"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="79"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="44"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="79"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="47">
-        <v>5.05</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="95">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="48">
+      <c r="B16" s="80"/>
+      <c r="C16" s="121">
+        <v>5.12</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="115">
+        <v>100</v>
+      </c>
+      <c r="F16" s="116"/>
+      <c r="G16" s="119">
         <v>4</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="44"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="79"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="44"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="79"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="47">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="95">
-        <v>1</v>
-      </c>
-      <c r="F18" s="96"/>
-      <c r="G18" s="48">
+      <c r="B18" s="80"/>
+      <c r="C18" s="121">
+        <v>5.13</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="115">
+        <v>70</v>
+      </c>
+      <c r="F18" s="116"/>
+      <c r="G18" s="119">
         <v>5</v>
       </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="64"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="40"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="66"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="42"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="47">
-        <v>5.07</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="95">
-        <v>1</v>
-      </c>
-      <c r="F20" s="96"/>
-      <c r="G20" s="48">
+      <c r="B20" s="80"/>
+      <c r="C20" s="121">
+        <v>5.14</v>
+      </c>
+      <c r="D20" s="43"/>
+      <c r="E20" s="115">
+        <v>0</v>
+      </c>
+      <c r="F20" s="116"/>
+      <c r="G20" s="119">
         <v>6</v>
       </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="64"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="40"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="66"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="42"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="48">
+      <c r="B22" s="80"/>
+      <c r="C22" s="121">
+        <v>5.15</v>
+      </c>
+      <c r="D22" s="43"/>
+      <c r="E22" s="115">
+        <v>0</v>
+      </c>
+      <c r="F22" s="116"/>
+      <c r="G22" s="119">
         <v>7</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="64"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="40"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="66"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="42"/>
     </row>
     <row r="24" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63" t="s">
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="21" t="s">
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="O25" s="12"/>
+      <c r="O25" s="30"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="13">
-        <v>5.09</v>
-      </c>
-      <c r="D26" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="23">
-        <v>0.7</v>
+      <c r="B26" s="77"/>
+      <c r="C26" s="31">
+        <v>5.16</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="14">
+        <v>60</v>
       </c>
       <c r="O26" s="11"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="22">
-        <v>1</v>
-      </c>
-      <c r="O27" s="17"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="123" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="124"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="33">
+        <v>100</v>
+      </c>
+      <c r="O27" s="34"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="13">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="D28" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="23">
-        <v>0.4</v>
+      <c r="B28" s="77"/>
+      <c r="C28" s="31">
+        <v>5.18</v>
+      </c>
+      <c r="D28" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="127"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="14">
+        <v>100</v>
       </c>
       <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="15">
-        <v>5.12</v>
-      </c>
-      <c r="D29" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="22">
-        <v>1</v>
-      </c>
-      <c r="O29" s="17"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="129" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="33">
+        <v>70</v>
+      </c>
+      <c r="O29" s="34"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="13">
-        <v>5.13</v>
-      </c>
-      <c r="D30" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="23">
-        <v>1</v>
+      <c r="B30" s="77"/>
+      <c r="C30" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="126" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="128"/>
+      <c r="N30" s="14">
+        <v>100</v>
       </c>
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="17"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="34"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="13">
-        <v>5.15</v>
-      </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="31">
+        <v>5.22</v>
+      </c>
+      <c r="D32" s="126"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="127"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="128"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="46"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="130"/>
+      <c r="K33" s="130"/>
+      <c r="L33" s="130"/>
+      <c r="M33" s="130"/>
+      <c r="N33" s="130"/>
+      <c r="O33" s="131"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="39"/>
+      <c r="A34" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="89"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="41"/>
+      <c r="A35" s="132"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="132"/>
+      <c r="L35" s="132"/>
+      <c r="M35" s="132"/>
+      <c r="N35" s="132"/>
+      <c r="O35" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -6098,803 +7068,799 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="H4:O4"/>
   </mergeCells>
-  <phoneticPr fontId="38" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB036B02-BC27-485C-94FE-2282402EC7D9}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E945BD47-993D-427E-8D02-DDD64D63E8CF}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A1:O35"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection sqref="A1:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="83"/>
+      <c r="A1" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="129"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="104"/>
     </row>
     <row r="3" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="130" t="s">
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="132"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="107"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="91"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="61"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>1</v>
       </c>
-      <c r="B5" s="126" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
+      <c r="B5" s="108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="26">
         <v>1</v>
       </c>
-      <c r="H5" s="127" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="128"/>
+      <c r="H5" s="109" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="110"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="93" t="s">
-        <v>110</v>
-      </c>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="94"/>
+      <c r="H6" s="102" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="103"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>3</v>
       </c>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
       <c r="G7" s="26">
         <v>3</v>
       </c>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="128"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="110"/>
     </row>
     <row r="8" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="62" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="72"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="70"/>
     </row>
     <row r="9" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="123" t="s">
+      <c r="E9" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="124"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="115" t="s">
+      <c r="H9" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115" t="s">
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115" t="s">
+      <c r="M9" s="111"/>
+      <c r="N9" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="125"/>
+      <c r="O9" s="114"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="116">
-        <v>5.9</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="117">
+      <c r="B10" s="80"/>
+      <c r="C10" s="121">
+        <v>5.16</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="115">
         <v>80</v>
       </c>
-      <c r="F10" s="118"/>
-      <c r="G10" s="121">
+      <c r="F10" s="116"/>
+      <c r="G10" s="119">
         <v>1</v>
       </c>
-      <c r="H10" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="M10" s="64"/>
-      <c r="N10" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="44"/>
+      <c r="H10" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" s="40"/>
+      <c r="N10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" s="79"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="44"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="79"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="49" t="s">
+      <c r="B12" s="80"/>
+      <c r="C12" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="115">
         <v>100</v>
       </c>
-      <c r="D12" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="117">
+      <c r="F12" s="116"/>
+      <c r="G12" s="119">
+        <v>2</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="79"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="79"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="80"/>
+      <c r="C14" s="121">
+        <v>5.18</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="115">
+        <v>70</v>
+      </c>
+      <c r="F14" s="116"/>
+      <c r="G14" s="119">
+        <v>3</v>
+      </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="79"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="79"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="80"/>
+      <c r="C16" s="121">
+        <v>5.19</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="115">
         <v>100</v>
       </c>
-      <c r="F12" s="118"/>
-      <c r="G12" s="121">
-        <v>2</v>
-      </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="44"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="44"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="116">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="117">
-        <v>70</v>
-      </c>
-      <c r="F14" s="118"/>
-      <c r="G14" s="121">
-        <v>3</v>
-      </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="44"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="44"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="116">
-        <v>5.12</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="117">
+      <c r="F16" s="116"/>
+      <c r="G16" s="119">
+        <v>4</v>
+      </c>
+      <c r="H16" s="38"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="79"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="79"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="80"/>
+      <c r="C18" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="115">
         <v>100</v>
       </c>
-      <c r="F16" s="118"/>
-      <c r="G16" s="121">
-        <v>4</v>
-      </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="44"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="44"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="116">
-        <v>5.13</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="117">
-        <v>70</v>
-      </c>
-      <c r="F18" s="118"/>
-      <c r="G18" s="121">
+      <c r="F18" s="116"/>
+      <c r="G18" s="119">
         <v>5</v>
       </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="64"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="40"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="66"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="42"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="116">
-        <v>5.14</v>
-      </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="117">
+      <c r="B20" s="80"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="115">
         <v>0</v>
       </c>
-      <c r="F20" s="118"/>
-      <c r="G20" s="121">
+      <c r="F20" s="116"/>
+      <c r="G20" s="119">
         <v>6</v>
       </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="64"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="40"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="66"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="42"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="116">
-        <v>5.15</v>
-      </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="117">
+      <c r="B22" s="80"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="115">
         <v>0</v>
       </c>
-      <c r="F22" s="118"/>
-      <c r="G22" s="121">
+      <c r="F22" s="116"/>
+      <c r="G22" s="119">
         <v>7</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="64"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="40"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="66"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="42"/>
     </row>
     <row r="24" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="115" t="s">
+      <c r="A25" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="115"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115" t="s">
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="115"/>
-      <c r="M25" s="115"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
       <c r="N25" s="29" t="s">
         <v>24</v>
       </c>
       <c r="O25" s="30"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="60"/>
+      <c r="B26" s="77"/>
       <c r="C26" s="31">
         <v>5.16</v>
       </c>
-      <c r="D26" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
+      <c r="D26" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
       <c r="N26" s="14">
         <v>60</v>
       </c>
       <c r="O26" s="11"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="110"/>
+      <c r="B27" s="122"/>
       <c r="C27" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="114"/>
+      <c r="D27" s="123" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="124"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124"/>
+      <c r="M27" s="125"/>
       <c r="N27" s="33">
         <v>100</v>
       </c>
       <c r="O27" s="34"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="60"/>
+      <c r="B28" s="77"/>
       <c r="C28" s="31">
         <v>5.18</v>
       </c>
-      <c r="D28" s="107" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="109"/>
+      <c r="D28" s="126" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="127"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="128"/>
       <c r="N28" s="14">
         <v>100</v>
       </c>
       <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="110" t="s">
+      <c r="A29" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="110"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="111" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="111"/>
+      <c r="D29" s="129" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
       <c r="N29" s="33">
         <v>70</v>
       </c>
       <c r="O29" s="34"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="60"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="107" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="109"/>
+      <c r="D30" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="128"/>
       <c r="N30" s="14">
         <v>100</v>
       </c>
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="110"/>
+      <c r="B31" s="122"/>
       <c r="C31" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="111"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
       <c r="N31" s="33"/>
       <c r="O31" s="34"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="60"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="31">
         <v>5.22</v>
       </c>
-      <c r="D32" s="107"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="109"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="127"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="128"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="103" t="s">
+      <c r="A33" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="104"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="130"/>
+      <c r="K33" s="130"/>
+      <c r="L33" s="130"/>
+      <c r="M33" s="130"/>
+      <c r="N33" s="130"/>
+      <c r="O33" s="131"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="39"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="89"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="105"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="106"/>
+      <c r="A35" s="132"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="132"/>
+      <c r="L35" s="132"/>
+      <c r="M35" s="132"/>
+      <c r="N35" s="132"/>
+      <c r="O35" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -6993,799 +7959,799 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="D32:M32"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E945BD47-993D-427E-8D02-DDD64D63E8CF}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593D6278-5AC1-481F-956C-043479F4D8B6}">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:K11"/>
+      <selection activeCell="A34" sqref="A34:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="22.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="83"/>
+      <c r="A1" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="129"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="104"/>
     </row>
     <row r="3" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="130" t="s">
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="132"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="107"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="90" t="s">
+      <c r="H4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="91"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="61"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>1</v>
       </c>
-      <c r="B5" s="126" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
+      <c r="B5" s="108" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="26">
         <v>1</v>
       </c>
-      <c r="H5" s="127" t="s">
-        <v>117</v>
-      </c>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="128"/>
+      <c r="H5" s="109" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="110"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="93" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="94"/>
+      <c r="H6" s="102" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="103"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="26">
         <v>3</v>
       </c>
-      <c r="B7" s="126" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
+      <c r="B7" s="108" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
       <c r="G7" s="26">
         <v>3</v>
       </c>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="128"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="110"/>
     </row>
     <row r="8" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="62" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="72"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="70"/>
     </row>
     <row r="9" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="123" t="s">
+      <c r="E9" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="124"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="115" t="s">
+      <c r="H9" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115" t="s">
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115" t="s">
+      <c r="M9" s="111"/>
+      <c r="N9" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="125"/>
+      <c r="O9" s="114"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="116">
-        <v>5.16</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="117">
-        <v>80</v>
-      </c>
-      <c r="F10" s="118"/>
-      <c r="G10" s="121">
+      <c r="B10" s="80"/>
+      <c r="C10" s="121">
+        <v>5.23</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="115">
+        <v>100</v>
+      </c>
+      <c r="F10" s="116"/>
+      <c r="G10" s="119">
         <v>1</v>
       </c>
-      <c r="H10" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="M10" s="64"/>
-      <c r="N10" s="43" t="s">
+      <c r="H10" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="M10" s="40"/>
+      <c r="N10" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="O10" s="44"/>
+      <c r="O10" s="79"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="44"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="79"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="117">
+      <c r="B12" s="80"/>
+      <c r="C12" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="115">
         <v>100</v>
       </c>
-      <c r="F12" s="118"/>
-      <c r="G12" s="121">
+      <c r="F12" s="116"/>
+      <c r="G12" s="119">
         <v>2</v>
       </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="44"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="79"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="44"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="79"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="116">
-        <v>5.18</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="117">
+      <c r="B14" s="80"/>
+      <c r="C14" s="121">
+        <v>5.25</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="115">
         <v>70</v>
       </c>
-      <c r="F14" s="118"/>
-      <c r="G14" s="121">
+      <c r="F14" s="116"/>
+      <c r="G14" s="119">
         <v>3</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="44"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="79"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="44"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="79"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="116">
-        <v>5.19</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="117">
+      <c r="B16" s="80"/>
+      <c r="C16" s="121">
+        <v>5.26</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="115">
         <v>100</v>
       </c>
-      <c r="F16" s="118"/>
-      <c r="G16" s="121">
+      <c r="F16" s="116"/>
+      <c r="G16" s="119">
         <v>4</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="44"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="79"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="44"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="79"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="117">
+      <c r="B18" s="80"/>
+      <c r="C18" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="115">
         <v>100</v>
       </c>
-      <c r="F18" s="118"/>
-      <c r="G18" s="121">
+      <c r="F18" s="116"/>
+      <c r="G18" s="119">
         <v>5</v>
       </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="64"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="40"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="66"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="42"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="117">
+      <c r="B20" s="80"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="115">
         <v>0</v>
       </c>
-      <c r="F20" s="118"/>
-      <c r="G20" s="121">
+      <c r="F20" s="116"/>
+      <c r="G20" s="119">
         <v>6</v>
       </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="64"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="40"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="66"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="42"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="117">
+      <c r="B22" s="80"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="115">
         <v>0</v>
       </c>
-      <c r="F22" s="118"/>
-      <c r="G22" s="121">
+      <c r="F22" s="116"/>
+      <c r="G22" s="119">
         <v>7</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="64"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="40"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="66"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="42"/>
     </row>
     <row r="24" spans="1:15" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
       <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="115" t="s">
+      <c r="A25" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="115"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115" t="s">
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="115"/>
-      <c r="M25" s="115"/>
-      <c r="N25" s="29" t="s">
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="37" t="s">
         <v>24</v>
       </c>
       <c r="O25" s="30"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="60"/>
+      <c r="B26" s="77"/>
       <c r="C26" s="31">
         <v>5.16</v>
       </c>
-      <c r="D26" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
+      <c r="D26" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
       <c r="N26" s="14">
         <v>60</v>
       </c>
       <c r="O26" s="11"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="110"/>
+      <c r="B27" s="122"/>
       <c r="C27" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="112" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="114"/>
+      <c r="D27" s="123" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="124"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124"/>
+      <c r="M27" s="125"/>
       <c r="N27" s="33">
         <v>100</v>
       </c>
       <c r="O27" s="34"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="60"/>
+      <c r="B28" s="77"/>
       <c r="C28" s="31">
         <v>5.18</v>
       </c>
-      <c r="D28" s="107" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="109"/>
+      <c r="D28" s="126" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="127"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="128"/>
       <c r="N28" s="14">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="110" t="s">
+      <c r="A29" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="110"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="111"/>
+      <c r="D29" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
       <c r="N29" s="33">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O29" s="34"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="60"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="107" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="109"/>
+      <c r="D30" s="126" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="127"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="128"/>
       <c r="N30" s="14">
         <v>100</v>
       </c>
       <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="110"/>
+      <c r="B31" s="122"/>
       <c r="C31" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="111"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
       <c r="N31" s="33"/>
       <c r="O31" s="34"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="60"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="31">
         <v>5.22</v>
       </c>
-      <c r="D32" s="107"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="109"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="127"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="128"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="103" t="s">
+      <c r="A33" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="104"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="130"/>
+      <c r="K33" s="130"/>
+      <c r="L33" s="130"/>
+      <c r="M33" s="130"/>
+      <c r="N33" s="130"/>
+      <c r="O33" s="131"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="39"/>
+      <c r="A34" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="89"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="105"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="106"/>
+      <c r="A35" s="132"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="132"/>
+      <c r="L35" s="132"/>
+      <c r="M35" s="132"/>
+      <c r="N35" s="132"/>
+      <c r="O35" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="94">
